--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1906.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1906.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49779E53-2E64-4279-BE30-17FDFFDC774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B67EFD-B54D-475E-8400-BC0618735903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="75" windowWidth="27645" windowHeight="22020" xr2:uid="{369540E1-CCDE-427C-864C-CCFAC2AD843B}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{369540E1-CCDE-427C-864C-CCFAC2AD843B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="193">
   <si>
     <t>губ</t>
   </si>
@@ -607,6 +607,15 @@
   </si>
   <si>
     <t>То же по Европейской России, из-за отсутствия половой разбивки сведений для Области Войска Донского.</t>
+  </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
   </si>
 </sst>
 </file>
@@ -665,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -676,6 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,13 +1000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DD670F-650D-463F-8152-C200CFDBE8B2}">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1022,9 +1032,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.20703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,8 +1120,17 @@
       <c r="AC1" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1201,8 +1221,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE2" s="8">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1212,8 +1244,8 @@
       <c r="C3" s="3">
         <v>45406</v>
       </c>
-      <c r="D3" s="3">
-        <v>29703</v>
+      <c r="D3" s="10">
+        <v>29793</v>
       </c>
       <c r="F3" s="4">
         <v>81459</v>
@@ -1293,16 +1325,28 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE3" s="8">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="3">
         <v>1842346</v>
       </c>
-      <c r="C4" s="3">
-        <v>62491</v>
+      <c r="C4" s="10">
+        <v>62499</v>
       </c>
       <c r="D4" s="3">
         <v>36059</v>
@@ -1385,16 +1429,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE4" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>1739403</v>
       </c>
-      <c r="C5" s="3">
-        <v>62251</v>
+      <c r="C5" s="10">
+        <v>62257</v>
       </c>
       <c r="D5" s="3">
         <v>35497</v>
@@ -1477,8 +1533,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE5" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1569,16 +1637,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE6" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="3">
         <v>1715173</v>
       </c>
-      <c r="C7" s="3">
-        <v>66431</v>
+      <c r="C7" s="10">
+        <v>66434</v>
       </c>
       <c r="D7" s="3">
         <v>38296</v>
@@ -1661,16 +1741,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE7" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="3">
-        <v>4252801</v>
-      </c>
-      <c r="C8" s="3">
-        <v>176141</v>
+      <c r="B8" s="10">
+        <v>4252800</v>
+      </c>
+      <c r="C8" s="10">
+        <v>176144</v>
       </c>
       <c r="D8" s="3">
         <v>108521</v>
@@ -1753,12 +1845,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE8" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="10">
         <v>1680171</v>
       </c>
       <c r="C9" s="3">
@@ -1845,16 +1949,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE9" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="3">
-        <v>2621291</v>
-      </c>
-      <c r="C10" s="3">
-        <v>106981</v>
+      <c r="B10" s="10">
+        <v>2621294</v>
+      </c>
+      <c r="C10" s="10">
+        <v>106988</v>
       </c>
       <c r="D10" s="3">
         <v>54943</v>
@@ -1937,13 +2053,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="3">
-        <v>2069411</v>
+      <c r="B11" s="10">
+        <v>2069418</v>
       </c>
       <c r="C11" s="3">
         <v>84273</v>
@@ -2029,8 +2157,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE11" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2121,8 +2261,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE12" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2213,8 +2365,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE13" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -2305,8 +2469,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE14" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2397,8 +2573,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE15" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -2489,8 +2677,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2581,8 +2781,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE17" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2673,8 +2885,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE18" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2765,8 +2989,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE19" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2857,8 +3093,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE20" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2949,8 +3197,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE21" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -3041,8 +3301,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE22" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3133,8 +3405,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE23" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -3225,8 +3509,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE24" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -3317,13 +3613,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE25" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="3">
-        <v>11982864</v>
+      <c r="B26" s="10">
+        <v>11982844</v>
       </c>
       <c r="C26" s="3">
         <v>424787</v>
@@ -3409,16 +3717,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE26" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3">
         <v>719600</v>
       </c>
-      <c r="C27" s="3">
-        <v>18924</v>
+      <c r="C27" s="10">
+        <v>18624</v>
       </c>
       <c r="D27" s="3">
         <v>12732</v>
@@ -3501,8 +3821,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE27" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -3593,8 +3925,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE28" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3685,13 +4029,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE29" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="3">
-        <v>2586012</v>
+      <c r="B30" s="10">
+        <v>2586042</v>
       </c>
       <c r="C30" s="3">
         <v>65846</v>
@@ -3777,8 +4133,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE30" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -3869,8 +4237,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE31" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3961,8 +4341,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE32" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -4053,8 +4445,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE33" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4145,16 +4549,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE34" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>103</v>
       </c>
       <c r="B35" s="3">
         <v>3519838</v>
       </c>
-      <c r="C35" s="3">
-        <v>196408</v>
+      <c r="C35" s="10">
+        <v>196403</v>
       </c>
       <c r="D35" s="3">
         <v>154272</v>
@@ -4237,8 +4653,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE35" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4329,8 +4757,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE36" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4421,8 +4861,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE37" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4513,8 +4965,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE38" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -4605,8 +5069,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE39" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -4697,8 +5173,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE40" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -4789,8 +5277,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE41" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -4881,8 +5381,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE42" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -4973,8 +5485,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE43" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -5065,8 +5589,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE44" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -5157,8 +5693,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE45" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -5249,8 +5797,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE46" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -5341,8 +5901,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE47" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5433,8 +6005,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE48" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -5525,8 +6109,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE49" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -5617,8 +6213,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE50" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -5709,8 +6317,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE51" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -5801,8 +6421,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE52" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5893,8 +6525,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE53" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -5985,8 +6629,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE54" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -6077,8 +6733,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE55" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -6169,8 +6837,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE56" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -6261,8 +6941,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE57" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -6353,8 +7045,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE58" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -6445,8 +7149,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE59" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -6537,8 +7253,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE60" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -6629,8 +7357,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE61" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6721,8 +7461,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE62" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -6813,8 +7565,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE63" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -6905,8 +7669,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE64" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -6997,8 +7773,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE65" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -7089,8 +7877,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE66" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -7113,7 +7913,7 @@
         <v>454403</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" ref="I67:I107" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I107" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="4">
@@ -7126,7 +7926,7 @@
         <v>13904</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M107" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M107" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="4">
@@ -7139,7 +7939,7 @@
         <v>9637</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" ref="Q67:Q107" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q107" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="4">
@@ -7152,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" ref="U67:U107" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U107" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="4">
@@ -7165,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="6">
-        <f t="shared" ref="Y67:Y107" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y107" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="4">
@@ -7178,11 +7978,23 @@
         <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <f t="shared" ref="AC67:AC107" si="11">Z67+AA67-AB67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="AC67:AC107" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="8">
+        <f t="shared" ref="AE67:AE122" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="8">
+        <f t="shared" ref="AF67:AF122" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="8">
+        <f t="shared" ref="AG67:AG122" si="17">D67-P67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -7205,7 +8017,7 @@
         <v>241758</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="4">
@@ -7218,7 +8030,7 @@
         <v>7946</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="4">
@@ -7231,7 +8043,7 @@
         <v>4971</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="4">
@@ -7244,7 +8056,7 @@
         <v>2458201</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="4">
@@ -7257,7 +8069,7 @@
         <v>110384</v>
       </c>
       <c r="Y68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="4">
@@ -7270,11 +8082,23 @@
         <v>64692</v>
       </c>
       <c r="AC68" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -7297,7 +8121,7 @@
         <v>149452</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="4">
@@ -7310,7 +8134,7 @@
         <v>7140</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="4">
@@ -7323,7 +8147,7 @@
         <v>6021</v>
       </c>
       <c r="Q69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="4">
@@ -7336,7 +8160,7 @@
         <v>1091187</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="4">
@@ -7349,7 +8173,7 @@
         <v>43641</v>
       </c>
       <c r="Y69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="4">
@@ -7362,11 +8186,23 @@
         <v>34553</v>
       </c>
       <c r="AC69" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -7389,7 +8225,7 @@
         <v>9879338</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="4">
@@ -7402,7 +8238,7 @@
         <v>368151</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="4">
@@ -7415,7 +8251,7 @@
         <v>280135</v>
       </c>
       <c r="Q70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="4">
@@ -7428,7 +8264,7 @@
         <v>69641105</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V70" s="4">
@@ -7441,7 +8277,7 @@
         <v>3448730</v>
       </c>
       <c r="Y70" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="4">
@@ -7454,11 +8290,23 @@
         <v>2208051</v>
       </c>
       <c r="AC70" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -7481,7 +8329,7 @@
         <v>272760</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="4" t="s">
@@ -7494,7 +8342,7 @@
         <v>13797</v>
       </c>
       <c r="M71" s="6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N71" s="4" t="s">
@@ -7507,7 +8355,7 @@
         <v>9281</v>
       </c>
       <c r="Q71" s="6" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R71" s="4">
@@ -7520,7 +8368,7 @@
         <v>2593449</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="4" t="s">
@@ -7533,1547 +8381,1751 @@
         <v>136837</v>
       </c>
       <c r="Y71" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>80156</v>
+      </c>
+      <c r="AC71" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE71" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="3">
+        <v>123235155</v>
+      </c>
+      <c r="C72" s="10">
+        <v>5536940</v>
+      </c>
+      <c r="D72" s="3">
+        <v>3517723</v>
+      </c>
+      <c r="F72" s="4">
+        <v>8092973</v>
+      </c>
+      <c r="G72" s="4">
+        <v>7618668</v>
+      </c>
+      <c r="H72" s="4">
+        <v>15711641</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>288533</v>
+      </c>
+      <c r="K72" s="4">
+        <v>271803</v>
+      </c>
+      <c r="L72" s="4">
+        <v>574133</v>
+      </c>
+      <c r="M72" s="6">
+        <f t="shared" si="10"/>
+        <v>-13797</v>
+      </c>
+      <c r="N72" s="4">
+        <v>220009</v>
+      </c>
+      <c r="O72" s="4">
+        <v>187055</v>
+      </c>
+      <c r="P72" s="4">
+        <v>416345</v>
+      </c>
+      <c r="Q72" s="6">
+        <f t="shared" si="11"/>
+        <v>-9281</v>
+      </c>
+      <c r="R72" s="4">
+        <v>53175457</v>
+      </c>
+      <c r="S72" s="4">
+        <v>54348057</v>
+      </c>
+      <c r="T72" s="4">
+        <v>107523514</v>
+      </c>
+      <c r="U72" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="4">
+        <v>2469787</v>
+      </c>
+      <c r="W72" s="4">
+        <v>2356183</v>
+      </c>
+      <c r="X72" s="4">
+        <v>4962807</v>
+      </c>
+      <c r="Y72" s="6">
+        <f t="shared" si="13"/>
+        <v>-136837</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>1553345</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>1467877</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>3101378</v>
+      </c>
+      <c r="AC72" s="6">
+        <f t="shared" si="14"/>
+        <v>-80156</v>
+      </c>
+      <c r="AE72" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1078250</v>
+      </c>
+      <c r="C73" s="3">
+        <v>22668</v>
+      </c>
+      <c r="D73" s="3">
+        <v>18832</v>
+      </c>
+      <c r="F73" s="4">
+        <v>172379</v>
+      </c>
+      <c r="G73" s="4">
+        <v>112564</v>
+      </c>
+      <c r="H73" s="4">
+        <v>284943</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>2014</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1933</v>
+      </c>
+      <c r="L73" s="4">
+        <v>3947</v>
+      </c>
+      <c r="M73" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
+        <v>2421</v>
+      </c>
+      <c r="O73" s="4">
+        <v>1861</v>
+      </c>
+      <c r="P73" s="4">
+        <v>4282</v>
+      </c>
+      <c r="Q73" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
+        <v>449901</v>
+      </c>
+      <c r="S73" s="4">
+        <v>343406</v>
+      </c>
+      <c r="T73" s="4">
+        <v>793307</v>
+      </c>
+      <c r="U73" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="4">
+        <v>10036</v>
+      </c>
+      <c r="W73" s="4">
+        <v>8685</v>
+      </c>
+      <c r="X73" s="4">
+        <v>18721</v>
+      </c>
+      <c r="Y73" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>8250</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>6300</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>14550</v>
+      </c>
+      <c r="AC73" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="3">
+        <v>165332</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4285</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2352</v>
+      </c>
+      <c r="F74" s="4">
+        <v>23352</v>
+      </c>
+      <c r="G74" s="4">
+        <v>18927</v>
+      </c>
+      <c r="H74" s="4">
+        <v>42279</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>792</v>
+      </c>
+      <c r="K74" s="4">
+        <v>673</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1465</v>
+      </c>
+      <c r="M74" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
+        <v>474</v>
+      </c>
+      <c r="O74" s="4">
+        <v>340</v>
+      </c>
+      <c r="P74" s="4">
+        <v>814</v>
+      </c>
+      <c r="Q74" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="4">
+        <v>68040</v>
+      </c>
+      <c r="S74" s="4">
+        <v>55013</v>
+      </c>
+      <c r="T74" s="4">
+        <v>123053</v>
+      </c>
+      <c r="U74" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="4">
+        <v>1514</v>
+      </c>
+      <c r="W74" s="4">
+        <v>1306</v>
+      </c>
+      <c r="X74" s="4">
+        <v>2820</v>
+      </c>
+      <c r="Y74" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>914</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>624</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>1538</v>
+      </c>
+      <c r="AC74" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="3">
+        <v>659952</v>
+      </c>
+      <c r="C75" s="3">
+        <v>16094</v>
+      </c>
+      <c r="D75" s="3">
+        <v>12844</v>
+      </c>
+      <c r="F75" s="4">
+        <v>31564</v>
+      </c>
+      <c r="G75" s="4">
+        <v>26866</v>
+      </c>
+      <c r="H75" s="4">
+        <v>58430</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>847</v>
+      </c>
+      <c r="K75" s="4">
+        <v>655</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1502</v>
+      </c>
+      <c r="M75" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="4">
+        <v>684</v>
+      </c>
+      <c r="O75" s="4">
+        <v>583</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1267</v>
+      </c>
+      <c r="Q75" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <v>312194</v>
+      </c>
+      <c r="S75" s="4">
+        <v>289328</v>
+      </c>
+      <c r="T75" s="4">
+        <v>601522</v>
+      </c>
+      <c r="U75" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="4">
+        <v>7823</v>
+      </c>
+      <c r="W75" s="4">
+        <v>6769</v>
+      </c>
+      <c r="X75" s="4">
+        <v>14592</v>
+      </c>
+      <c r="Y75" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>6300</v>
+      </c>
+      <c r="AA75" s="4">
+        <v>5277</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>11577</v>
+      </c>
+      <c r="AC75" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="3">
+        <v>953300</v>
+      </c>
+      <c r="C76" s="3">
+        <v>25877</v>
+      </c>
+      <c r="D76" s="3">
+        <v>16515</v>
+      </c>
+      <c r="F76" s="4">
+        <v>48600</v>
+      </c>
+      <c r="G76" s="4">
+        <v>41000</v>
+      </c>
+      <c r="H76" s="4">
+        <v>89600</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1114</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1092</v>
+      </c>
+      <c r="L76" s="4">
+        <v>2206</v>
+      </c>
+      <c r="M76" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1146</v>
+      </c>
+      <c r="O76" s="4">
+        <v>968</v>
+      </c>
+      <c r="P76" s="4">
+        <v>2114</v>
+      </c>
+      <c r="Q76" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="4">
+        <v>477200</v>
+      </c>
+      <c r="S76" s="4">
+        <v>386500</v>
+      </c>
+      <c r="T76" s="4">
+        <v>863700</v>
+      </c>
+      <c r="U76" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="4">
+        <v>12739</v>
+      </c>
+      <c r="W76" s="4">
+        <v>10932</v>
+      </c>
+      <c r="X76" s="4">
+        <v>23671</v>
+      </c>
+      <c r="Y76" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>7759</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>6642</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>14401</v>
+      </c>
+      <c r="AC76" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="10">
+        <v>339557</v>
+      </c>
+      <c r="C77" s="3">
+        <v>10606</v>
+      </c>
+      <c r="D77" s="3">
+        <v>5836</v>
+      </c>
+      <c r="F77" s="4">
+        <v>12259</v>
+      </c>
+      <c r="G77" s="4">
+        <v>10448</v>
+      </c>
+      <c r="H77" s="4">
+        <v>22707</v>
+      </c>
+      <c r="I77" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <v>513</v>
+      </c>
+      <c r="K77" s="4">
+        <v>527</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1040</v>
+      </c>
+      <c r="M77" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="4">
+        <v>359</v>
+      </c>
+      <c r="O77" s="4">
+        <v>395</v>
+      </c>
+      <c r="P77" s="4">
+        <v>754</v>
+      </c>
+      <c r="Q77" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="4">
+        <v>164260</v>
+      </c>
+      <c r="S77" s="4">
+        <v>152590</v>
+      </c>
+      <c r="T77" s="4">
+        <v>316850</v>
+      </c>
+      <c r="U77" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="4">
+        <v>4926</v>
+      </c>
+      <c r="W77" s="4">
+        <v>4640</v>
+      </c>
+      <c r="X77" s="4">
+        <v>9566</v>
+      </c>
+      <c r="Y77" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>2753</v>
+      </c>
+      <c r="AA77" s="4">
+        <v>2329</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>5082</v>
+      </c>
+      <c r="AC77" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2381500</v>
+      </c>
+      <c r="C78" s="3">
+        <v>126748</v>
+      </c>
+      <c r="D78" s="3">
+        <v>62719</v>
+      </c>
+      <c r="F78" s="4">
+        <v>96104</v>
+      </c>
+      <c r="G78" s="4">
+        <v>89407</v>
+      </c>
+      <c r="H78" s="4">
+        <v>185511</v>
+      </c>
+      <c r="I78" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <v>5273</v>
+      </c>
+      <c r="K78" s="4">
+        <v>3896</v>
+      </c>
+      <c r="L78" s="4">
+        <v>9169</v>
+      </c>
+      <c r="M78" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="4">
+        <v>3144</v>
+      </c>
+      <c r="O78" s="4">
+        <v>2313</v>
+      </c>
+      <c r="P78" s="4">
+        <v>5457</v>
+      </c>
+      <c r="Q78" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="4">
+        <v>1112159</v>
+      </c>
+      <c r="S78" s="4">
+        <v>1083830</v>
+      </c>
+      <c r="T78" s="4">
+        <v>2195989</v>
+      </c>
+      <c r="U78" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="4">
+        <v>60253</v>
+      </c>
+      <c r="W78" s="4">
+        <v>57326</v>
+      </c>
+      <c r="X78" s="4">
+        <v>117579</v>
+      </c>
+      <c r="Y78" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>29696</v>
+      </c>
+      <c r="AA78" s="4">
+        <v>27566</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>57262</v>
+      </c>
+      <c r="AC78" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="3">
+        <v>916283</v>
+      </c>
+      <c r="C79" s="3">
+        <v>25582</v>
+      </c>
+      <c r="D79" s="3">
+        <v>12568</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H79" s="4">
+        <v>61876</v>
+      </c>
+      <c r="I79" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J79" s="4">
+        <v>716</v>
+      </c>
+      <c r="K79" s="4">
+        <v>667</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1383</v>
+      </c>
+      <c r="M79" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="4">
+        <v>427</v>
+      </c>
+      <c r="O79" s="4">
+        <v>310</v>
+      </c>
+      <c r="P79" s="4">
+        <v>737</v>
+      </c>
+      <c r="Q79" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="T79" s="4">
+        <v>854407</v>
+      </c>
+      <c r="U79" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V79" s="4">
+        <v>12562</v>
+      </c>
+      <c r="W79" s="4">
+        <v>11637</v>
+      </c>
+      <c r="X79" s="4">
+        <v>24199</v>
+      </c>
+      <c r="Y79" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>6092</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>5739</v>
+      </c>
+      <c r="AB79" s="3">
+        <v>11831</v>
+      </c>
+      <c r="AC79" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1108915</v>
+      </c>
+      <c r="C80" s="3">
+        <v>65461</v>
+      </c>
+      <c r="D80" s="3">
+        <v>37626</v>
+      </c>
+      <c r="F80" s="4">
+        <v>33027</v>
+      </c>
+      <c r="G80" s="4">
+        <v>32233</v>
+      </c>
+      <c r="H80" s="4">
+        <v>65260</v>
+      </c>
+      <c r="I80" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1752</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1606</v>
+      </c>
+      <c r="L80" s="4">
+        <v>3358</v>
+      </c>
+      <c r="M80" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="4">
+        <v>1040</v>
+      </c>
+      <c r="O80" s="4">
+        <v>905</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1945</v>
+      </c>
+      <c r="Q80" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="4">
+        <v>531455</v>
+      </c>
+      <c r="S80" s="4">
+        <v>512200</v>
+      </c>
+      <c r="T80" s="4">
+        <v>1043655</v>
+      </c>
+      <c r="U80" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="4">
+        <v>31704</v>
+      </c>
+      <c r="W80" s="4">
+        <v>30399</v>
+      </c>
+      <c r="X80" s="4">
+        <v>62103</v>
+      </c>
+      <c r="Y80" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>18485</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>17196</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>35681</v>
+      </c>
+      <c r="AC80" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1056799</v>
+      </c>
+      <c r="C81" s="3">
+        <v>42620</v>
+      </c>
+      <c r="D81" s="3">
+        <v>25321</v>
+      </c>
+      <c r="F81" s="4">
+        <v>84478</v>
+      </c>
+      <c r="G81" s="4">
+        <v>71996</v>
+      </c>
+      <c r="H81" s="4">
+        <v>156474</v>
+      </c>
+      <c r="I81" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L81" s="4">
+        <v>7225</v>
+      </c>
+      <c r="M81" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z71" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AA71" s="4" t="s">
+      <c r="O81" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AB71" s="3">
-        <v>80156</v>
-      </c>
-      <c r="AC71" s="6" t="e">
+      <c r="P81" s="4">
+        <v>4291</v>
+      </c>
+      <c r="Q81" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="3">
-        <v>123235155</v>
-      </c>
-      <c r="C72" s="3">
-        <v>5536910</v>
-      </c>
-      <c r="D72" s="3">
-        <v>3517723</v>
-      </c>
-      <c r="F72" s="4">
-        <v>8092973</v>
-      </c>
-      <c r="G72" s="4">
-        <v>7618668</v>
-      </c>
-      <c r="H72" s="4">
-        <v>15711641</v>
-      </c>
-      <c r="I72" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <v>288533</v>
-      </c>
-      <c r="K72" s="4">
-        <v>271803</v>
-      </c>
-      <c r="L72" s="4">
-        <v>574133</v>
-      </c>
-      <c r="M72" s="6">
-        <f t="shared" si="7"/>
-        <v>-13797</v>
-      </c>
-      <c r="N72" s="4">
-        <v>220009</v>
-      </c>
-      <c r="O72" s="4">
-        <v>187055</v>
-      </c>
-      <c r="P72" s="4">
-        <v>416345</v>
-      </c>
-      <c r="Q72" s="6">
-        <f t="shared" si="8"/>
-        <v>-9281</v>
-      </c>
-      <c r="R72" s="4">
-        <v>53175457</v>
-      </c>
-      <c r="S72" s="4">
-        <v>54348057</v>
-      </c>
-      <c r="T72" s="4">
-        <v>107523514</v>
-      </c>
-      <c r="U72" s="6">
+      <c r="R81" s="4">
+        <v>469855</v>
+      </c>
+      <c r="S81" s="4">
+        <v>430470</v>
+      </c>
+      <c r="T81" s="4">
+        <v>900325</v>
+      </c>
+      <c r="U81" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="W81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X81" s="4">
+        <v>35395</v>
+      </c>
+      <c r="Y81" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>21030</v>
+      </c>
+      <c r="AC81" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE81" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1150488</v>
+      </c>
+      <c r="C82" s="3">
+        <v>39530</v>
+      </c>
+      <c r="D82" s="3">
+        <v>20277</v>
+      </c>
+      <c r="F82" s="4">
+        <v>173038</v>
+      </c>
+      <c r="G82" s="4">
+        <v>144146</v>
+      </c>
+      <c r="H82" s="4">
+        <v>317184</v>
+      </c>
+      <c r="I82" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V72" s="4">
-        <v>2469787</v>
-      </c>
-      <c r="W72" s="4">
-        <v>2356183</v>
-      </c>
-      <c r="X72" s="4">
-        <v>4962807</v>
-      </c>
-      <c r="Y72" s="6">
+      <c r="J82" s="4">
+        <v>5025</v>
+      </c>
+      <c r="K82" s="4">
+        <v>3093</v>
+      </c>
+      <c r="L82" s="4">
+        <v>8118</v>
+      </c>
+      <c r="M82" s="6">
         <f t="shared" si="10"/>
-        <v>-136837</v>
-      </c>
-      <c r="Z72" s="4">
-        <v>1553345</v>
-      </c>
-      <c r="AA72" s="4">
-        <v>1467877</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>3101378</v>
-      </c>
-      <c r="AC72" s="6">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4">
+        <v>2968</v>
+      </c>
+      <c r="O82" s="4">
+        <v>1923</v>
+      </c>
+      <c r="P82" s="4">
+        <v>4891</v>
+      </c>
+      <c r="Q82" s="6">
         <f t="shared" si="11"/>
-        <v>-80156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1078250</v>
-      </c>
-      <c r="C73" s="3">
-        <v>22668</v>
-      </c>
-      <c r="D73" s="3">
-        <v>18832</v>
-      </c>
-      <c r="F73" s="4">
-        <v>172379</v>
-      </c>
-      <c r="G73" s="4">
-        <v>112564</v>
-      </c>
-      <c r="H73" s="4">
-        <v>284943</v>
-      </c>
-      <c r="I73" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1933</v>
-      </c>
-      <c r="L73" s="4">
-        <v>3947</v>
-      </c>
-      <c r="M73" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="4">
-        <v>2421</v>
-      </c>
-      <c r="O73" s="4">
-        <v>1861</v>
-      </c>
-      <c r="P73" s="4">
-        <v>4282</v>
-      </c>
-      <c r="Q73" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="4">
-        <v>449901</v>
-      </c>
-      <c r="S73" s="4">
-        <v>343406</v>
-      </c>
-      <c r="T73" s="4">
-        <v>793307</v>
-      </c>
-      <c r="U73" s="6">
+        <v>0</v>
+      </c>
+      <c r="R82" s="4">
+        <v>440716</v>
+      </c>
+      <c r="S82" s="4">
+        <v>392588</v>
+      </c>
+      <c r="T82" s="4">
+        <v>833304</v>
+      </c>
+      <c r="U82" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="4">
+        <v>17648</v>
+      </c>
+      <c r="W82" s="4">
+        <v>13764</v>
+      </c>
+      <c r="X82" s="4">
+        <v>31412</v>
+      </c>
+      <c r="Y82" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>8349</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>7037</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>15386</v>
+      </c>
+      <c r="AC82" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="3">
+        <v>112487</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3810</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1840</v>
+      </c>
+      <c r="F83" s="4">
+        <v>33751</v>
+      </c>
+      <c r="G83" s="4">
+        <v>22731</v>
+      </c>
+      <c r="H83" s="4">
+        <v>56482</v>
+      </c>
+      <c r="I83" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V73" s="4">
-        <v>10036</v>
-      </c>
-      <c r="W73" s="4">
-        <v>8685</v>
-      </c>
-      <c r="X73" s="4">
-        <v>18721</v>
-      </c>
-      <c r="Y73" s="6">
+      <c r="J83" s="4">
+        <v>981</v>
+      </c>
+      <c r="K83" s="4">
+        <v>890</v>
+      </c>
+      <c r="L83" s="4">
+        <v>1871</v>
+      </c>
+      <c r="M83" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z73" s="4">
-        <v>8250</v>
-      </c>
-      <c r="AA73" s="4">
-        <v>6300</v>
-      </c>
-      <c r="AB73" s="3">
-        <v>14550</v>
-      </c>
-      <c r="AC73" s="6">
+      <c r="N83" s="4">
+        <v>527</v>
+      </c>
+      <c r="O83" s="4">
+        <v>484</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1011</v>
+      </c>
+      <c r="Q83" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="3">
-        <v>165332</v>
-      </c>
-      <c r="C74" s="3">
-        <v>4285</v>
-      </c>
-      <c r="D74" s="3">
-        <v>2352</v>
-      </c>
-      <c r="F74" s="4">
-        <v>23352</v>
-      </c>
-      <c r="G74" s="4">
-        <v>18927</v>
-      </c>
-      <c r="H74" s="4">
-        <v>42279</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="4">
-        <v>792</v>
-      </c>
-      <c r="K74" s="4">
-        <v>673</v>
-      </c>
-      <c r="L74" s="4">
-        <v>1465</v>
-      </c>
-      <c r="M74" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="4">
-        <v>474</v>
-      </c>
-      <c r="O74" s="4">
-        <v>340</v>
-      </c>
-      <c r="P74" s="4">
-        <v>814</v>
-      </c>
-      <c r="Q74" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="4">
-        <v>68040</v>
-      </c>
-      <c r="S74" s="4">
-        <v>55013</v>
-      </c>
-      <c r="T74" s="4">
-        <v>123053</v>
-      </c>
-      <c r="U74" s="6">
+      <c r="R83" s="4">
+        <v>31674</v>
+      </c>
+      <c r="S83" s="4">
+        <v>24331</v>
+      </c>
+      <c r="T83" s="4">
+        <v>56005</v>
+      </c>
+      <c r="U83" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="4">
+        <v>1015</v>
+      </c>
+      <c r="W83" s="4">
+        <v>924</v>
+      </c>
+      <c r="X83" s="4">
+        <v>1939</v>
+      </c>
+      <c r="Y83" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>443</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>386</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>829</v>
+      </c>
+      <c r="AC83" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="3">
+        <v>845331</v>
+      </c>
+      <c r="C84" s="3">
+        <v>30212</v>
+      </c>
+      <c r="D84" s="3">
+        <v>20476</v>
+      </c>
+      <c r="F84" s="4">
+        <v>47653</v>
+      </c>
+      <c r="G84" s="4">
+        <v>33546</v>
+      </c>
+      <c r="H84" s="4">
+        <v>81199</v>
+      </c>
+      <c r="I84" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V74" s="4">
-        <v>1514</v>
-      </c>
-      <c r="W74" s="4">
-        <v>1306</v>
-      </c>
-      <c r="X74" s="4">
-        <v>2820</v>
-      </c>
-      <c r="Y74" s="6">
+      <c r="J84" s="4">
+        <v>1667</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1520</v>
+      </c>
+      <c r="L84" s="4">
+        <v>3187</v>
+      </c>
+      <c r="M84" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z74" s="4">
-        <v>914</v>
-      </c>
-      <c r="AA74" s="4">
-        <v>624</v>
-      </c>
-      <c r="AB74" s="3">
-        <v>1538</v>
-      </c>
-      <c r="AC74" s="6">
+      <c r="N84" s="4">
+        <v>1192</v>
+      </c>
+      <c r="O84" s="4">
+        <v>1048</v>
+      </c>
+      <c r="P84" s="4">
+        <v>2240</v>
+      </c>
+      <c r="Q84" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="3">
-        <v>659952</v>
-      </c>
-      <c r="C75" s="3">
-        <v>16094</v>
-      </c>
-      <c r="D75" s="3">
-        <v>12844</v>
-      </c>
-      <c r="F75" s="4">
-        <v>31564</v>
-      </c>
-      <c r="G75" s="4">
-        <v>26866</v>
-      </c>
-      <c r="H75" s="4">
-        <v>58430</v>
-      </c>
-      <c r="I75" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <v>847</v>
-      </c>
-      <c r="K75" s="4">
-        <v>655</v>
-      </c>
-      <c r="L75" s="4">
-        <v>1502</v>
-      </c>
-      <c r="M75" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="4">
-        <v>684</v>
-      </c>
-      <c r="O75" s="4">
-        <v>583</v>
-      </c>
-      <c r="P75" s="4">
-        <v>1267</v>
-      </c>
-      <c r="Q75" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R75" s="4">
-        <v>312194</v>
-      </c>
-      <c r="S75" s="4">
-        <v>289328</v>
-      </c>
-      <c r="T75" s="4">
-        <v>601522</v>
-      </c>
-      <c r="U75" s="6">
+      <c r="R84" s="4">
+        <v>402616</v>
+      </c>
+      <c r="S84" s="4">
+        <v>361516</v>
+      </c>
+      <c r="T84" s="4">
+        <v>764132</v>
+      </c>
+      <c r="U84" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="4">
+        <v>14502</v>
+      </c>
+      <c r="W84" s="4">
+        <v>12523</v>
+      </c>
+      <c r="X84" s="4">
+        <v>27025</v>
+      </c>
+      <c r="Y84" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>9215</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>9021</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>18236</v>
+      </c>
+      <c r="AC84" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="10">
+        <v>10768194</v>
+      </c>
+      <c r="C85" s="3">
+        <v>413493</v>
+      </c>
+      <c r="D85" s="3">
+        <v>237206</v>
+      </c>
+      <c r="F85" s="4">
+        <v>756205</v>
+      </c>
+      <c r="G85" s="4">
+        <v>603864</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1421945</v>
+      </c>
+      <c r="I85" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="4">
-        <v>7823</v>
-      </c>
-      <c r="W75" s="4">
-        <v>6769</v>
-      </c>
-      <c r="X75" s="4">
-        <v>14592</v>
-      </c>
-      <c r="Y75" s="6">
+        <v>-61876</v>
+      </c>
+      <c r="J85" s="4">
+        <v>20694</v>
+      </c>
+      <c r="K85" s="4">
+        <v>16552</v>
+      </c>
+      <c r="L85" s="4">
+        <v>44471</v>
+      </c>
+      <c r="M85" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="4">
-        <v>6300</v>
-      </c>
-      <c r="AA75" s="4">
-        <v>5277</v>
-      </c>
-      <c r="AB75" s="3">
-        <v>11577</v>
-      </c>
-      <c r="AC75" s="6">
+        <v>-7225</v>
+      </c>
+      <c r="N85" s="4">
+        <v>14382</v>
+      </c>
+      <c r="O85" s="4">
+        <v>11130</v>
+      </c>
+      <c r="P85" s="4">
+        <v>29803</v>
+      </c>
+      <c r="Q85" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="3">
-        <v>953300</v>
-      </c>
-      <c r="C76" s="3">
-        <v>25877</v>
-      </c>
-      <c r="D76" s="3">
-        <v>16515</v>
-      </c>
-      <c r="F76" s="4">
-        <v>48600</v>
-      </c>
-      <c r="G76" s="4">
-        <v>41000</v>
-      </c>
-      <c r="H76" s="4">
-        <v>89600</v>
-      </c>
-      <c r="I76" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
-        <v>1114</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1092</v>
-      </c>
-      <c r="L76" s="4">
-        <v>2206</v>
-      </c>
-      <c r="M76" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="4">
-        <v>1146</v>
-      </c>
-      <c r="O76" s="4">
-        <v>968</v>
-      </c>
-      <c r="P76" s="4">
-        <v>2114</v>
-      </c>
-      <c r="Q76" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R76" s="4">
-        <v>477200</v>
-      </c>
-      <c r="S76" s="4">
-        <v>386500</v>
-      </c>
-      <c r="T76" s="4">
-        <v>863700</v>
-      </c>
-      <c r="U76" s="6">
+        <v>-4291</v>
+      </c>
+      <c r="R85" s="4">
+        <v>4460070</v>
+      </c>
+      <c r="S85" s="4">
+        <v>4031772</v>
+      </c>
+      <c r="T85" s="4">
+        <v>9346249</v>
+      </c>
+      <c r="U85" s="6">
+        <f t="shared" si="12"/>
+        <v>-854407</v>
+      </c>
+      <c r="V85" s="4">
+        <v>174722</v>
+      </c>
+      <c r="W85" s="4">
+        <v>158905</v>
+      </c>
+      <c r="X85" s="4">
+        <v>369022</v>
+      </c>
+      <c r="Y85" s="6">
+        <f t="shared" si="13"/>
+        <v>-35395</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>98256</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>88117</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>207403</v>
+      </c>
+      <c r="AC85" s="6">
+        <f t="shared" si="14"/>
+        <v>-21030</v>
+      </c>
+      <c r="AE85" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="3">
+        <v>134166</v>
+      </c>
+      <c r="C86" s="3">
+        <v>7160</v>
+      </c>
+      <c r="D86" s="3">
+        <v>3370</v>
+      </c>
+      <c r="F86" s="4">
+        <v>22439</v>
+      </c>
+      <c r="G86" s="4">
+        <v>17190</v>
+      </c>
+      <c r="H86" s="4">
+        <v>39629</v>
+      </c>
+      <c r="I86" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V76" s="4">
-        <v>12739</v>
-      </c>
-      <c r="W76" s="4">
-        <v>10932</v>
-      </c>
-      <c r="X76" s="4">
-        <v>23671</v>
-      </c>
-      <c r="Y76" s="6">
+      <c r="J86" s="4">
+        <v>1110</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1178</v>
+      </c>
+      <c r="L86" s="4">
+        <v>2288</v>
+      </c>
+      <c r="M86" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z76" s="4">
-        <v>7759</v>
-      </c>
-      <c r="AA76" s="4">
-        <v>6642</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>14401</v>
-      </c>
-      <c r="AC76" s="6">
+      <c r="N86" s="4">
+        <v>840</v>
+      </c>
+      <c r="O86" s="4">
+        <v>598</v>
+      </c>
+      <c r="P86" s="4">
+        <v>1438</v>
+      </c>
+      <c r="Q86" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="3">
-        <v>389557</v>
-      </c>
-      <c r="C77" s="3">
-        <v>10606</v>
-      </c>
-      <c r="D77" s="3">
-        <v>5836</v>
-      </c>
-      <c r="F77" s="4">
-        <v>12259</v>
-      </c>
-      <c r="G77" s="4">
-        <v>10448</v>
-      </c>
-      <c r="H77" s="4">
-        <v>22707</v>
-      </c>
-      <c r="I77" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="4">
-        <v>513</v>
-      </c>
-      <c r="K77" s="4">
-        <v>527</v>
-      </c>
-      <c r="L77" s="4">
-        <v>1040</v>
-      </c>
-      <c r="M77" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="4">
-        <v>359</v>
-      </c>
-      <c r="O77" s="4">
-        <v>395</v>
-      </c>
-      <c r="P77" s="4">
-        <v>754</v>
-      </c>
-      <c r="Q77" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="4">
-        <v>164260</v>
-      </c>
-      <c r="S77" s="4">
-        <v>152590</v>
-      </c>
-      <c r="T77" s="4">
-        <v>316850</v>
-      </c>
-      <c r="U77" s="6">
+      <c r="R86" s="4">
+        <v>57945</v>
+      </c>
+      <c r="S86" s="4">
+        <v>36592</v>
+      </c>
+      <c r="T86" s="4">
+        <v>94537</v>
+      </c>
+      <c r="U86" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="4">
+        <v>2528</v>
+      </c>
+      <c r="W86" s="4">
+        <v>2344</v>
+      </c>
+      <c r="X86" s="4">
+        <v>4872</v>
+      </c>
+      <c r="Y86" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="4">
+        <v>1021</v>
+      </c>
+      <c r="AA86" s="4">
+        <v>911</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>1932</v>
+      </c>
+      <c r="AC86" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="3">
+        <v>766850</v>
+      </c>
+      <c r="C87" s="3">
+        <v>38537</v>
+      </c>
+      <c r="D87" s="3">
+        <v>26857</v>
+      </c>
+      <c r="F87" s="4">
+        <v>48521</v>
+      </c>
+      <c r="G87" s="4">
+        <v>41966</v>
+      </c>
+      <c r="H87" s="4">
+        <v>90487</v>
+      </c>
+      <c r="I87" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V77" s="4">
-        <v>4926</v>
-      </c>
-      <c r="W77" s="4">
-        <v>4640</v>
-      </c>
-      <c r="X77" s="4">
-        <v>9566</v>
-      </c>
-      <c r="Y77" s="6">
+      <c r="J87" s="4">
+        <v>1862</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1862</v>
+      </c>
+      <c r="L87" s="4">
+        <v>3724</v>
+      </c>
+      <c r="M87" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z77" s="4">
-        <v>2753</v>
-      </c>
-      <c r="AA77" s="4">
-        <v>2329</v>
-      </c>
-      <c r="AB77" s="3">
-        <v>5082</v>
-      </c>
-      <c r="AC77" s="6">
+      <c r="N87" s="4">
+        <v>1915</v>
+      </c>
+      <c r="O87" s="4">
+        <v>1405</v>
+      </c>
+      <c r="P87" s="4">
+        <v>3320</v>
+      </c>
+      <c r="Q87" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="3">
-        <v>2381500</v>
-      </c>
-      <c r="C78" s="3">
-        <v>126748</v>
-      </c>
-      <c r="D78" s="3">
-        <v>62719</v>
-      </c>
-      <c r="F78" s="4">
-        <v>96104</v>
-      </c>
-      <c r="G78" s="4">
-        <v>89407</v>
-      </c>
-      <c r="H78" s="4">
-        <v>185511</v>
-      </c>
-      <c r="I78" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="4">
-        <v>5273</v>
-      </c>
-      <c r="K78" s="4">
-        <v>3896</v>
-      </c>
-      <c r="L78" s="4">
-        <v>9169</v>
-      </c>
-      <c r="M78" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="4">
-        <v>3144</v>
-      </c>
-      <c r="O78" s="4">
-        <v>2313</v>
-      </c>
-      <c r="P78" s="4">
-        <v>5457</v>
-      </c>
-      <c r="Q78" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R78" s="4">
-        <v>1112159</v>
-      </c>
-      <c r="S78" s="4">
-        <v>1083830</v>
-      </c>
-      <c r="T78" s="4">
-        <v>2195989</v>
-      </c>
-      <c r="U78" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="4">
-        <v>60253</v>
-      </c>
-      <c r="W78" s="4">
-        <v>57326</v>
-      </c>
-      <c r="X78" s="4">
-        <v>117579</v>
-      </c>
-      <c r="Y78" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="4">
-        <v>29696</v>
-      </c>
-      <c r="AA78" s="4">
-        <v>27566</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>57262</v>
-      </c>
-      <c r="AC78" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="3">
-        <v>916283</v>
-      </c>
-      <c r="C79" s="3">
-        <v>25582</v>
-      </c>
-      <c r="D79" s="3">
-        <v>12568</v>
-      </c>
-      <c r="F79" s="4" t="s">
+      <c r="R87" s="4">
+        <v>357184</v>
+      </c>
+      <c r="S87" s="4">
+        <v>319179</v>
+      </c>
+      <c r="T87" s="4">
+        <v>676363</v>
+      </c>
+      <c r="U87" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="4">
+        <v>18619</v>
+      </c>
+      <c r="W87" s="4">
+        <v>16194</v>
+      </c>
+      <c r="X87" s="4">
+        <v>34813</v>
+      </c>
+      <c r="Y87" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>12619</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>10918</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>23537</v>
+      </c>
+      <c r="AC87" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="3">
+        <v>827253</v>
+      </c>
+      <c r="C88" s="3">
+        <v>23514</v>
+      </c>
+      <c r="D88" s="3">
+        <v>16534</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H79" s="4">
-        <v>61876</v>
-      </c>
-      <c r="I79" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J79" s="4">
-        <v>716</v>
-      </c>
-      <c r="K79" s="4">
-        <v>667</v>
-      </c>
-      <c r="L79" s="4">
-        <v>1383</v>
-      </c>
-      <c r="M79" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="4">
-        <v>427</v>
-      </c>
-      <c r="O79" s="4">
-        <v>310</v>
-      </c>
-      <c r="P79" s="4">
-        <v>737</v>
-      </c>
-      <c r="Q79" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S79" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T79" s="4">
-        <v>854407</v>
-      </c>
-      <c r="U79" s="6" t="e">
+      <c r="H88" s="4">
+        <v>84253</v>
+      </c>
+      <c r="I88" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V79" s="4">
-        <v>12562</v>
-      </c>
-      <c r="W79" s="4">
-        <v>11637</v>
-      </c>
-      <c r="X79" s="4">
-        <v>24199</v>
-      </c>
-      <c r="Y79" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="4">
-        <v>6092</v>
-      </c>
-      <c r="AA79" s="4">
-        <v>5739</v>
-      </c>
-      <c r="AB79" s="3">
-        <v>11831</v>
-      </c>
-      <c r="AC79" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="3">
-        <v>1108915</v>
-      </c>
-      <c r="C80" s="3">
-        <v>65461</v>
-      </c>
-      <c r="D80" s="3">
-        <v>37626</v>
-      </c>
-      <c r="F80" s="4">
-        <v>33027</v>
-      </c>
-      <c r="G80" s="4">
-        <v>32233</v>
-      </c>
-      <c r="H80" s="4">
-        <v>65260</v>
-      </c>
-      <c r="I80" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="4">
-        <v>1752</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1606</v>
-      </c>
-      <c r="L80" s="4">
-        <v>3358</v>
-      </c>
-      <c r="M80" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="4">
-        <v>1040</v>
-      </c>
-      <c r="O80" s="4">
-        <v>905</v>
-      </c>
-      <c r="P80" s="4">
-        <v>1945</v>
-      </c>
-      <c r="Q80" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R80" s="4">
-        <v>531455</v>
-      </c>
-      <c r="S80" s="4">
-        <v>512200</v>
-      </c>
-      <c r="T80" s="4">
-        <v>1043655</v>
-      </c>
-      <c r="U80" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V80" s="4">
-        <v>31704</v>
-      </c>
-      <c r="W80" s="4">
-        <v>30399</v>
-      </c>
-      <c r="X80" s="4">
-        <v>62103</v>
-      </c>
-      <c r="Y80" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z80" s="4">
-        <v>18485</v>
-      </c>
-      <c r="AA80" s="4">
-        <v>17196</v>
-      </c>
-      <c r="AB80" s="3">
-        <v>35681</v>
-      </c>
-      <c r="AC80" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="3">
-        <v>1056799</v>
-      </c>
-      <c r="C81" s="3">
-        <v>42620</v>
-      </c>
-      <c r="D81" s="3">
-        <v>25321</v>
-      </c>
-      <c r="F81" s="4">
-        <v>84478</v>
-      </c>
-      <c r="G81" s="4">
-        <v>71996</v>
-      </c>
-      <c r="H81" s="4">
-        <v>156474</v>
-      </c>
-      <c r="I81" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="4" t="s">
+      <c r="J88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L81" s="4">
-        <v>7225</v>
-      </c>
-      <c r="M81" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="P81" s="4">
-        <v>4291</v>
-      </c>
-      <c r="Q81" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R81" s="4">
-        <v>469855</v>
-      </c>
-      <c r="S81" s="4">
-        <v>430470</v>
-      </c>
-      <c r="T81" s="4">
-        <v>900325</v>
-      </c>
-      <c r="U81" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W81" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="X81" s="4">
-        <v>35395</v>
-      </c>
-      <c r="Y81" s="6" t="e">
+      <c r="L88" s="4">
+        <v>2377</v>
+      </c>
+      <c r="M88" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z81" s="4" t="s">
+      <c r="N88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AA81" s="4" t="s">
+      <c r="O88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AB81" s="3">
-        <v>21030</v>
-      </c>
-      <c r="AC81" s="6" t="e">
+      <c r="P88" s="4">
+        <v>1855</v>
+      </c>
+      <c r="Q88" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1150488</v>
-      </c>
-      <c r="C82" s="3">
-        <v>39530</v>
-      </c>
-      <c r="D82" s="3">
-        <v>20277</v>
-      </c>
-      <c r="F82" s="4">
-        <v>173038</v>
-      </c>
-      <c r="G82" s="4">
-        <v>144146</v>
-      </c>
-      <c r="H82" s="4">
-        <v>317184</v>
-      </c>
-      <c r="I82" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="4">
-        <v>5025</v>
-      </c>
-      <c r="K82" s="4">
-        <v>3093</v>
-      </c>
-      <c r="L82" s="4">
-        <v>8118</v>
-      </c>
-      <c r="M82" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="4">
-        <v>2968</v>
-      </c>
-      <c r="O82" s="4">
-        <v>1923</v>
-      </c>
-      <c r="P82" s="4">
-        <v>4891</v>
-      </c>
-      <c r="Q82" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R82" s="4">
-        <v>440716</v>
-      </c>
-      <c r="S82" s="4">
-        <v>392588</v>
-      </c>
-      <c r="T82" s="4">
-        <v>833304</v>
-      </c>
-      <c r="U82" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V82" s="4">
-        <v>17648</v>
-      </c>
-      <c r="W82" s="4">
-        <v>13764</v>
-      </c>
-      <c r="X82" s="4">
-        <v>31412</v>
-      </c>
-      <c r="Y82" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z82" s="4">
-        <v>8349</v>
-      </c>
-      <c r="AA82" s="4">
-        <v>7037</v>
-      </c>
-      <c r="AB82" s="3">
-        <v>15386</v>
-      </c>
-      <c r="AC82" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" t="s">
-        <v>139</v>
-      </c>
-      <c r="B83" s="3">
-        <v>112487</v>
-      </c>
-      <c r="C83" s="3">
-        <v>3810</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1840</v>
-      </c>
-      <c r="F83" s="4">
-        <v>33751</v>
-      </c>
-      <c r="G83" s="4">
-        <v>22731</v>
-      </c>
-      <c r="H83" s="4">
-        <v>56482</v>
-      </c>
-      <c r="I83" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="4">
-        <v>981</v>
-      </c>
-      <c r="K83" s="4">
-        <v>890</v>
-      </c>
-      <c r="L83" s="4">
-        <v>1871</v>
-      </c>
-      <c r="M83" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="4">
-        <v>527</v>
-      </c>
-      <c r="O83" s="4">
-        <v>484</v>
-      </c>
-      <c r="P83" s="4">
-        <v>1011</v>
-      </c>
-      <c r="Q83" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="4">
-        <v>31674</v>
-      </c>
-      <c r="S83" s="4">
-        <v>24331</v>
-      </c>
-      <c r="T83" s="4">
-        <v>56005</v>
-      </c>
-      <c r="U83" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="4">
-        <v>1015</v>
-      </c>
-      <c r="W83" s="4">
-        <v>924</v>
-      </c>
-      <c r="X83" s="4">
-        <v>1939</v>
-      </c>
-      <c r="Y83" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z83" s="4">
-        <v>443</v>
-      </c>
-      <c r="AA83" s="4">
-        <v>386</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>829</v>
-      </c>
-      <c r="AC83" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="3">
-        <v>845331</v>
-      </c>
-      <c r="C84" s="3">
-        <v>30212</v>
-      </c>
-      <c r="D84" s="3">
-        <v>20476</v>
-      </c>
-      <c r="F84" s="4">
-        <v>47653</v>
-      </c>
-      <c r="G84" s="4">
-        <v>33546</v>
-      </c>
-      <c r="H84" s="4">
-        <v>81199</v>
-      </c>
-      <c r="I84" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="4">
-        <v>1667</v>
-      </c>
-      <c r="K84" s="4">
-        <v>1520</v>
-      </c>
-      <c r="L84" s="4">
-        <v>3187</v>
-      </c>
-      <c r="M84" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="4">
-        <v>1192</v>
-      </c>
-      <c r="O84" s="4">
-        <v>1048</v>
-      </c>
-      <c r="P84" s="4">
-        <v>2240</v>
-      </c>
-      <c r="Q84" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R84" s="4">
-        <v>402616</v>
-      </c>
-      <c r="S84" s="4">
-        <v>361516</v>
-      </c>
-      <c r="T84" s="4">
-        <v>764132</v>
-      </c>
-      <c r="U84" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V84" s="4">
-        <v>14502</v>
-      </c>
-      <c r="W84" s="4">
-        <v>12523</v>
-      </c>
-      <c r="X84" s="4">
-        <v>27025</v>
-      </c>
-      <c r="Y84" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="4">
-        <v>9215</v>
-      </c>
-      <c r="AA84" s="4">
-        <v>9021</v>
-      </c>
-      <c r="AB84" s="3">
-        <v>18236</v>
-      </c>
-      <c r="AC84" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" t="s">
-        <v>141</v>
-      </c>
-      <c r="B85" s="3">
-        <v>10768191</v>
-      </c>
-      <c r="C85" s="3">
-        <v>413493</v>
-      </c>
-      <c r="D85" s="3">
-        <v>237206</v>
-      </c>
-      <c r="F85" s="4">
-        <v>756205</v>
-      </c>
-      <c r="G85" s="4">
-        <v>603864</v>
-      </c>
-      <c r="H85" s="4">
-        <v>1421945</v>
-      </c>
-      <c r="I85" s="6">
-        <f t="shared" si="6"/>
-        <v>-61876</v>
-      </c>
-      <c r="J85" s="4">
-        <v>20694</v>
-      </c>
-      <c r="K85" s="4">
-        <v>16552</v>
-      </c>
-      <c r="L85" s="4">
-        <v>44471</v>
-      </c>
-      <c r="M85" s="6">
-        <f t="shared" si="7"/>
-        <v>-7225</v>
-      </c>
-      <c r="N85" s="4">
-        <v>14382</v>
-      </c>
-      <c r="O85" s="4">
-        <v>11130</v>
-      </c>
-      <c r="P85" s="4">
-        <v>29803</v>
-      </c>
-      <c r="Q85" s="6">
-        <f t="shared" si="8"/>
-        <v>-4291</v>
-      </c>
-      <c r="R85" s="4">
-        <v>4460070</v>
-      </c>
-      <c r="S85" s="4">
-        <v>4031772</v>
-      </c>
-      <c r="T85" s="4">
-        <v>9346249</v>
-      </c>
-      <c r="U85" s="6">
-        <f t="shared" si="9"/>
-        <v>-854407</v>
-      </c>
-      <c r="V85" s="4">
-        <v>174722</v>
-      </c>
-      <c r="W85" s="4">
-        <v>158905</v>
-      </c>
-      <c r="X85" s="4">
-        <v>369022</v>
-      </c>
-      <c r="Y85" s="6">
-        <f t="shared" si="10"/>
-        <v>-35395</v>
-      </c>
-      <c r="Z85" s="4">
-        <v>98256</v>
-      </c>
-      <c r="AA85" s="4">
-        <v>88117</v>
-      </c>
-      <c r="AB85" s="3">
-        <v>207403</v>
-      </c>
-      <c r="AC85" s="6">
-        <f t="shared" si="11"/>
-        <v>-21030</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86" s="3">
-        <v>134166</v>
-      </c>
-      <c r="C86" s="3">
-        <v>7160</v>
-      </c>
-      <c r="D86" s="3">
-        <v>3370</v>
-      </c>
-      <c r="F86" s="4">
-        <v>22439</v>
-      </c>
-      <c r="G86" s="4">
-        <v>17190</v>
-      </c>
-      <c r="H86" s="4">
-        <v>39629</v>
-      </c>
-      <c r="I86" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="4">
-        <v>1110</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1178</v>
-      </c>
-      <c r="L86" s="4">
-        <v>2288</v>
-      </c>
-      <c r="M86" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="4">
-        <v>840</v>
-      </c>
-      <c r="O86" s="4">
-        <v>598</v>
-      </c>
-      <c r="P86" s="4">
-        <v>1438</v>
-      </c>
-      <c r="Q86" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R86" s="4">
-        <v>57945</v>
-      </c>
-      <c r="S86" s="4">
-        <v>36592</v>
-      </c>
-      <c r="T86" s="4">
-        <v>94537</v>
-      </c>
-      <c r="U86" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="4">
-        <v>2528</v>
-      </c>
-      <c r="W86" s="4">
-        <v>2344</v>
-      </c>
-      <c r="X86" s="4">
-        <v>4872</v>
-      </c>
-      <c r="Y86" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z86" s="4">
-        <v>1021</v>
-      </c>
-      <c r="AA86" s="4">
-        <v>911</v>
-      </c>
-      <c r="AB86" s="3">
-        <v>1932</v>
-      </c>
-      <c r="AC86" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" t="s">
-        <v>143</v>
-      </c>
-      <c r="B87" s="3">
-        <v>766850</v>
-      </c>
-      <c r="C87" s="3">
-        <v>38537</v>
-      </c>
-      <c r="D87" s="3">
-        <v>26857</v>
-      </c>
-      <c r="F87" s="4">
-        <v>48521</v>
-      </c>
-      <c r="G87" s="4">
-        <v>41966</v>
-      </c>
-      <c r="H87" s="4">
-        <v>90487</v>
-      </c>
-      <c r="I87" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="4">
-        <v>1862</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1862</v>
-      </c>
-      <c r="L87" s="4">
-        <v>3724</v>
-      </c>
-      <c r="M87" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N87" s="4">
-        <v>1915</v>
-      </c>
-      <c r="O87" s="4">
-        <v>1405</v>
-      </c>
-      <c r="P87" s="4">
-        <v>3320</v>
-      </c>
-      <c r="Q87" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R87" s="4">
-        <v>357184</v>
-      </c>
-      <c r="S87" s="4">
-        <v>319179</v>
-      </c>
-      <c r="T87" s="4">
-        <v>676363</v>
-      </c>
-      <c r="U87" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="4">
-        <v>18619</v>
-      </c>
-      <c r="W87" s="4">
-        <v>16194</v>
-      </c>
-      <c r="X87" s="4">
-        <v>34813</v>
-      </c>
-      <c r="Y87" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="4">
-        <v>12619</v>
-      </c>
-      <c r="AA87" s="4">
-        <v>10918</v>
-      </c>
-      <c r="AB87" s="3">
-        <v>23537</v>
-      </c>
-      <c r="AC87" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="3">
-        <v>827253</v>
-      </c>
-      <c r="C88" s="3">
-        <v>23514</v>
-      </c>
-      <c r="D88" s="3">
-        <v>16534</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H88" s="4">
-        <v>84253</v>
-      </c>
-      <c r="I88" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L88" s="4">
-        <v>2377</v>
-      </c>
-      <c r="M88" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="P88" s="4">
-        <v>1855</v>
-      </c>
-      <c r="Q88" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R88" s="4" t="s">
         <v>165</v>
       </c>
@@ -9084,1468 +10136,1660 @@
         <v>743000</v>
       </c>
       <c r="U88" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X88" s="4">
+        <v>21137</v>
+      </c>
+      <c r="Y88" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z88" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA88" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>14679</v>
+      </c>
+      <c r="AC88" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE88" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="3">
+        <v>574311</v>
+      </c>
+      <c r="C89" s="3">
+        <v>22821</v>
+      </c>
+      <c r="D89" s="3">
+        <v>17166</v>
+      </c>
+      <c r="F89" s="4">
+        <v>32600</v>
+      </c>
+      <c r="G89" s="4">
+        <v>29960</v>
+      </c>
+      <c r="H89" s="4">
+        <v>62560</v>
+      </c>
+      <c r="I89" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L89" s="4">
+        <v>4584</v>
+      </c>
+      <c r="M89" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="P89" s="4">
+        <v>3664</v>
+      </c>
+      <c r="Q89" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R89" s="4">
+        <v>273400</v>
+      </c>
+      <c r="S89" s="4">
+        <v>238351</v>
+      </c>
+      <c r="T89" s="4">
+        <v>511751</v>
+      </c>
+      <c r="U89" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="W89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X89" s="4">
+        <v>18237</v>
+      </c>
+      <c r="Y89" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>13502</v>
+      </c>
+      <c r="AC89" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE89" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="3">
+        <v>359138</v>
+      </c>
+      <c r="C90" s="3">
+        <v>10427</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5812</v>
+      </c>
+      <c r="F90" s="4">
+        <v>65196</v>
+      </c>
+      <c r="G90" s="4">
+        <v>49158</v>
+      </c>
+      <c r="H90" s="4">
+        <v>114354</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1553</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1135</v>
+      </c>
+      <c r="L90" s="4">
+        <v>2688</v>
+      </c>
+      <c r="M90" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="4">
+        <v>1088</v>
+      </c>
+      <c r="O90" s="4">
+        <v>990</v>
+      </c>
+      <c r="P90" s="4">
+        <v>2078</v>
+      </c>
+      <c r="Q90" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="4">
+        <v>149137</v>
+      </c>
+      <c r="S90" s="4">
+        <v>95647</v>
+      </c>
+      <c r="T90" s="4">
+        <v>244784</v>
+      </c>
+      <c r="U90" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="4">
+        <v>3559</v>
+      </c>
+      <c r="W90" s="4">
+        <v>4180</v>
+      </c>
+      <c r="X90" s="4">
+        <v>7739</v>
+      </c>
+      <c r="Y90" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="4">
+        <v>2023</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>1711</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>3734</v>
+      </c>
+      <c r="AC90" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1747254</v>
+      </c>
+      <c r="C91" s="10">
+        <v>96885</v>
+      </c>
+      <c r="D91" s="3">
+        <v>68427</v>
+      </c>
+      <c r="F91" s="4">
+        <v>60631</v>
+      </c>
+      <c r="G91" s="4">
+        <v>53199</v>
+      </c>
+      <c r="H91" s="4">
+        <v>113830</v>
+      </c>
+      <c r="I91" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>2139</v>
+      </c>
+      <c r="K91" s="4">
+        <v>2053</v>
+      </c>
+      <c r="L91" s="4">
+        <v>4192</v>
+      </c>
+      <c r="M91" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>2221</v>
+      </c>
+      <c r="O91" s="4">
+        <v>1845</v>
+      </c>
+      <c r="P91" s="4">
+        <v>4066</v>
+      </c>
+      <c r="Q91" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="4">
+        <v>812246</v>
+      </c>
+      <c r="S91" s="4">
+        <v>821178</v>
+      </c>
+      <c r="T91" s="4">
+        <v>1633424</v>
+      </c>
+      <c r="U91" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="4">
+        <v>47443</v>
+      </c>
+      <c r="W91" s="4">
+        <v>45250</v>
+      </c>
+      <c r="X91" s="4">
+        <v>92693</v>
+      </c>
+      <c r="Y91" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>33199</v>
+      </c>
+      <c r="AA91" s="4">
+        <v>31162</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>64361</v>
+      </c>
+      <c r="AC91" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2553423</v>
+      </c>
+      <c r="C92" s="3">
+        <v>141871</v>
+      </c>
+      <c r="D92" s="3">
+        <v>85924</v>
+      </c>
+      <c r="F92" s="4">
+        <v>81313</v>
+      </c>
+      <c r="G92" s="4">
+        <v>81355</v>
+      </c>
+      <c r="H92" s="4">
+        <v>162668</v>
+      </c>
+      <c r="I92" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <v>4570</v>
+      </c>
+      <c r="K92" s="4">
+        <v>4266</v>
+      </c>
+      <c r="L92" s="4">
+        <v>8836</v>
+      </c>
+      <c r="M92" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="4">
+        <v>3665</v>
+      </c>
+      <c r="O92" s="4">
+        <v>3289</v>
+      </c>
+      <c r="P92" s="4">
+        <v>6954</v>
+      </c>
+      <c r="Q92" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="4">
+        <v>1223305</v>
+      </c>
+      <c r="S92" s="4">
+        <v>1167450</v>
+      </c>
+      <c r="T92" s="4">
+        <v>2390755</v>
+      </c>
+      <c r="U92" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="4">
+        <v>67913</v>
+      </c>
+      <c r="W92" s="4">
+        <v>65122</v>
+      </c>
+      <c r="X92" s="4">
+        <v>133035</v>
+      </c>
+      <c r="Y92" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="4">
+        <v>41061</v>
+      </c>
+      <c r="AA92" s="4">
+        <v>37909</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>78970</v>
+      </c>
+      <c r="AC92" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="3">
+        <v>265982</v>
+      </c>
+      <c r="C93" s="3">
+        <v>10814</v>
+      </c>
+      <c r="D93" s="3">
+        <v>7397</v>
+      </c>
+      <c r="F93" s="4">
+        <v>5402</v>
+      </c>
+      <c r="G93" s="4">
+        <v>4478</v>
+      </c>
+      <c r="H93" s="4">
+        <v>9880</v>
+      </c>
+      <c r="I93" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>234</v>
+      </c>
+      <c r="K93" s="4">
+        <v>226</v>
+      </c>
+      <c r="L93" s="4">
+        <v>460</v>
+      </c>
+      <c r="M93" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>208</v>
+      </c>
+      <c r="O93" s="4">
+        <v>156</v>
+      </c>
+      <c r="P93" s="4">
+        <v>364</v>
+      </c>
+      <c r="Q93" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="4">
+        <v>130724</v>
+      </c>
+      <c r="S93" s="4">
+        <v>125378</v>
+      </c>
+      <c r="T93" s="4">
+        <v>256102</v>
+      </c>
+      <c r="U93" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="4">
+        <v>5262</v>
+      </c>
+      <c r="W93" s="4">
+        <v>5092</v>
+      </c>
+      <c r="X93" s="4">
+        <v>10354</v>
+      </c>
+      <c r="Y93" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="4">
+        <v>3473</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>3560</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>7033</v>
+      </c>
+      <c r="AC93" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5523</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="3">
+        <v>145</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="I94" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0</v>
+      </c>
+      <c r="M94" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
+      <c r="P94" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="T94" s="4">
+        <v>5523</v>
+      </c>
+      <c r="U94" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="W94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y94" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>145</v>
+      </c>
+      <c r="AC94" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE94" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG94" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="3">
+        <v>7233900</v>
+      </c>
+      <c r="C95" s="3">
+        <v>352029</v>
+      </c>
+      <c r="D95" s="3">
+        <v>231632</v>
+      </c>
+      <c r="F95" s="4">
+        <v>316102</v>
+      </c>
+      <c r="G95" s="4">
+        <v>277306</v>
+      </c>
+      <c r="H95" s="4">
+        <v>677661</v>
+      </c>
+      <c r="I95" s="6">
+        <f t="shared" si="9"/>
+        <v>-84253</v>
+      </c>
+      <c r="J95" s="4">
+        <v>11468</v>
+      </c>
+      <c r="K95" s="4">
+        <v>10720</v>
+      </c>
+      <c r="L95" s="4">
+        <v>29149</v>
+      </c>
+      <c r="M95" s="6">
+        <f t="shared" si="10"/>
+        <v>-6961</v>
+      </c>
+      <c r="N95" s="4">
+        <v>9937</v>
+      </c>
+      <c r="O95" s="4">
+        <v>8283</v>
+      </c>
+      <c r="P95" s="4">
+        <v>23739</v>
+      </c>
+      <c r="Q95" s="6">
+        <f t="shared" si="11"/>
+        <v>-5519</v>
+      </c>
+      <c r="R95" s="4">
+        <v>3003941</v>
+      </c>
+      <c r="S95" s="4">
+        <v>2803775</v>
+      </c>
+      <c r="T95" s="4">
+        <v>6556239</v>
+      </c>
+      <c r="U95" s="6">
+        <f t="shared" si="12"/>
+        <v>-748523</v>
+      </c>
+      <c r="V95" s="4">
+        <v>145324</v>
+      </c>
+      <c r="W95" s="4">
+        <v>138182</v>
+      </c>
+      <c r="X95" s="4">
+        <v>322880</v>
+      </c>
+      <c r="Y95" s="6">
+        <f t="shared" si="13"/>
+        <v>-39374</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>93396</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>86171</v>
+      </c>
+      <c r="AB95" s="3">
+        <v>207893</v>
+      </c>
+      <c r="AC95" s="6">
+        <f t="shared" si="14"/>
+        <v>-28326</v>
+      </c>
+      <c r="AE95" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" s="3">
+        <v>956393</v>
+      </c>
+      <c r="C96" s="3">
+        <v>40153</v>
+      </c>
+      <c r="D96" s="3">
+        <v>24519</v>
+      </c>
+      <c r="F96" s="4">
+        <v>68206</v>
+      </c>
+      <c r="G96" s="4">
+        <v>59483</v>
+      </c>
+      <c r="H96" s="4">
+        <v>127689</v>
+      </c>
+      <c r="I96" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
+        <v>3499</v>
+      </c>
+      <c r="K96" s="4">
+        <v>3364</v>
+      </c>
+      <c r="L96" s="4">
+        <v>6863</v>
+      </c>
+      <c r="M96" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="4">
+        <v>3015</v>
+      </c>
+      <c r="O96" s="4">
+        <v>2375</v>
+      </c>
+      <c r="P96" s="4">
+        <v>5390</v>
+      </c>
+      <c r="Q96" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="4">
+        <v>434719</v>
+      </c>
+      <c r="S96" s="4">
+        <v>393985</v>
+      </c>
+      <c r="T96" s="4">
+        <v>828704</v>
+      </c>
+      <c r="U96" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="4">
+        <v>17289</v>
+      </c>
+      <c r="W96" s="4">
+        <v>16001</v>
+      </c>
+      <c r="X96" s="4">
+        <v>33290</v>
+      </c>
+      <c r="Y96" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z96" s="4">
+        <v>9959</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>9170</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>19129</v>
+      </c>
+      <c r="AC96" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="3">
+        <v>400783</v>
+      </c>
+      <c r="C97" s="3">
+        <v>9738</v>
+      </c>
+      <c r="D97" s="3">
+        <v>6659</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H97" s="4">
+        <v>53385</v>
+      </c>
+      <c r="I97" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V88" s="4" t="s">
+      <c r="J97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="W88" s="4" t="s">
+      <c r="K97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="X88" s="4">
-        <v>21137</v>
-      </c>
-      <c r="Y88" s="6" t="e">
+      <c r="L97" s="4">
+        <v>1239</v>
+      </c>
+      <c r="M97" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z88" s="4" t="s">
+      <c r="N97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AA88" s="4" t="s">
+      <c r="O97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AB88" s="3">
-        <v>14679</v>
-      </c>
-      <c r="AC88" s="6" t="e">
+      <c r="P97" s="4">
+        <v>847</v>
+      </c>
+      <c r="Q97" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="3">
-        <v>574311</v>
-      </c>
-      <c r="C89" s="3">
-        <v>22821</v>
-      </c>
-      <c r="D89" s="3">
-        <v>17166</v>
-      </c>
-      <c r="F89" s="4">
-        <v>32600</v>
-      </c>
-      <c r="G89" s="4">
-        <v>29960</v>
-      </c>
-      <c r="H89" s="4">
-        <v>62560</v>
-      </c>
-      <c r="I89" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="4" t="s">
+      <c r="R97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="S97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L89" s="4">
-        <v>4584</v>
-      </c>
-      <c r="M89" s="6" t="e">
-        <f t="shared" si="7"/>
+      <c r="T97" s="4">
+        <v>347398</v>
+      </c>
+      <c r="U97" s="6" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N89" s="4" t="s">
+      <c r="V97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="W97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P89" s="4">
-        <v>3664</v>
-      </c>
-      <c r="Q89" s="6" t="e">
-        <f t="shared" si="8"/>
+      <c r="X97" s="4">
+        <v>8499</v>
+      </c>
+      <c r="Y97" s="6" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R89" s="4">
-        <v>273400</v>
-      </c>
-      <c r="S89" s="4">
-        <v>238351</v>
-      </c>
-      <c r="T89" s="4">
-        <v>511751</v>
-      </c>
-      <c r="U89" s="6">
+      <c r="Z97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>5812</v>
+      </c>
+      <c r="AC97" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE97" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1026831</v>
+      </c>
+      <c r="C98" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H98" s="4">
+        <v>135473</v>
+      </c>
+      <c r="I98" s="6" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="4" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="W89" s="4" t="s">
+      <c r="K98" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="X89" s="4">
-        <v>18237</v>
-      </c>
-      <c r="Y89" s="6" t="e">
+      <c r="L98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M98" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z89" s="4" t="s">
+      <c r="N98" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AA89" s="4" t="s">
+      <c r="O98" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AB89" s="3">
-        <v>13502</v>
-      </c>
-      <c r="AC89" s="6" t="e">
+      <c r="P98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q98" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="3">
-        <v>359138</v>
-      </c>
-      <c r="C90" s="3">
-        <v>10427</v>
-      </c>
-      <c r="D90" s="3">
-        <v>5812</v>
-      </c>
-      <c r="F90" s="4">
-        <v>65196</v>
-      </c>
-      <c r="G90" s="4">
-        <v>49158</v>
-      </c>
-      <c r="H90" s="4">
-        <v>114354</v>
-      </c>
-      <c r="I90" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="4">
-        <v>1553</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1135</v>
-      </c>
-      <c r="L90" s="4">
-        <v>2688</v>
-      </c>
-      <c r="M90" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="4">
-        <v>1088</v>
-      </c>
-      <c r="O90" s="4">
-        <v>990</v>
-      </c>
-      <c r="P90" s="4">
-        <v>2078</v>
-      </c>
-      <c r="Q90" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="4">
-        <v>149137</v>
-      </c>
-      <c r="S90" s="4">
-        <v>95647</v>
-      </c>
-      <c r="T90" s="4">
-        <v>244784</v>
-      </c>
-      <c r="U90" s="6">
+      <c r="R98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="T98" s="4">
+        <v>891358</v>
+      </c>
+      <c r="U98" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="W98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y98" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB98" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC98" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE98" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG98" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" s="3">
+        <v>815833</v>
+      </c>
+      <c r="C99" s="3">
+        <v>16302</v>
+      </c>
+      <c r="D99" s="3">
+        <v>11035</v>
+      </c>
+      <c r="F99" s="4">
+        <v>28225</v>
+      </c>
+      <c r="G99" s="4">
+        <v>25114</v>
+      </c>
+      <c r="H99" s="4">
+        <v>53339</v>
+      </c>
+      <c r="I99" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V90" s="4">
-        <v>3559</v>
-      </c>
-      <c r="W90" s="4">
-        <v>4180</v>
-      </c>
-      <c r="X90" s="4">
-        <v>7739</v>
-      </c>
-      <c r="Y90" s="6">
+      <c r="J99" s="4">
+        <v>1536</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1356</v>
+      </c>
+      <c r="L99" s="4">
+        <v>2892</v>
+      </c>
+      <c r="M99" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z90" s="4">
-        <v>2023</v>
-      </c>
-      <c r="AA90" s="4">
-        <v>1711</v>
-      </c>
-      <c r="AB90" s="3">
-        <v>3734</v>
-      </c>
-      <c r="AC90" s="6">
+      <c r="N99" s="4">
+        <v>920</v>
+      </c>
+      <c r="O99" s="4">
+        <v>938</v>
+      </c>
+      <c r="P99" s="4">
+        <v>1858</v>
+      </c>
+      <c r="Q99" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1747254</v>
-      </c>
-      <c r="C91" s="3">
-        <v>96883</v>
-      </c>
-      <c r="D91" s="3">
-        <v>68427</v>
-      </c>
-      <c r="F91" s="4">
-        <v>60631</v>
-      </c>
-      <c r="G91" s="4">
-        <v>53199</v>
-      </c>
-      <c r="H91" s="4">
-        <v>113830</v>
-      </c>
-      <c r="I91" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="4">
-        <v>2139</v>
-      </c>
-      <c r="K91" s="4">
-        <v>2053</v>
-      </c>
-      <c r="L91" s="4">
-        <v>4192</v>
-      </c>
-      <c r="M91" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="4">
-        <v>2221</v>
-      </c>
-      <c r="O91" s="4">
-        <v>1845</v>
-      </c>
-      <c r="P91" s="4">
-        <v>4066</v>
-      </c>
-      <c r="Q91" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="4">
-        <v>812246</v>
-      </c>
-      <c r="S91" s="4">
-        <v>821178</v>
-      </c>
-      <c r="T91" s="4">
-        <v>1633424</v>
-      </c>
-      <c r="U91" s="6">
+      <c r="R99" s="4">
+        <v>420370</v>
+      </c>
+      <c r="S99" s="4">
+        <v>342124</v>
+      </c>
+      <c r="T99" s="4">
+        <v>762494</v>
+      </c>
+      <c r="U99" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="4">
+        <v>7344</v>
+      </c>
+      <c r="W99" s="4">
+        <v>6066</v>
+      </c>
+      <c r="X99" s="4">
+        <v>13410</v>
+      </c>
+      <c r="Y99" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>5127</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>4050</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>9177</v>
+      </c>
+      <c r="AC99" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1077463</v>
+      </c>
+      <c r="C100" s="3">
+        <v>30627</v>
+      </c>
+      <c r="D100" s="3">
+        <v>18811</v>
+      </c>
+      <c r="F100" s="4">
+        <v>46777</v>
+      </c>
+      <c r="G100" s="4">
+        <v>39222</v>
+      </c>
+      <c r="H100" s="4">
+        <v>85999</v>
+      </c>
+      <c r="I100" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V91" s="4">
-        <v>47443</v>
-      </c>
-      <c r="W91" s="4">
-        <v>45250</v>
-      </c>
-      <c r="X91" s="4">
-        <v>92693</v>
-      </c>
-      <c r="Y91" s="6">
+      <c r="J100" s="4">
+        <v>1809</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1631</v>
+      </c>
+      <c r="L100" s="4">
+        <v>3440</v>
+      </c>
+      <c r="M100" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z91" s="4">
-        <v>33199</v>
-      </c>
-      <c r="AA91" s="4">
-        <v>31162</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>64361</v>
-      </c>
-      <c r="AC91" s="6">
+      <c r="N100" s="4">
+        <v>1166</v>
+      </c>
+      <c r="O100" s="4">
+        <v>1053</v>
+      </c>
+      <c r="P100" s="4">
+        <v>2219</v>
+      </c>
+      <c r="Q100" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="3">
-        <v>2553423</v>
-      </c>
-      <c r="C92" s="3">
-        <v>141871</v>
-      </c>
-      <c r="D92" s="3">
-        <v>85924</v>
-      </c>
-      <c r="F92" s="4">
-        <v>81313</v>
-      </c>
-      <c r="G92" s="4">
-        <v>81355</v>
-      </c>
-      <c r="H92" s="4">
-        <v>162668</v>
-      </c>
-      <c r="I92" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="4">
-        <v>4570</v>
-      </c>
-      <c r="K92" s="4">
-        <v>4266</v>
-      </c>
-      <c r="L92" s="4">
-        <v>8836</v>
-      </c>
-      <c r="M92" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="4">
-        <v>3665</v>
-      </c>
-      <c r="O92" s="4">
-        <v>3289</v>
-      </c>
-      <c r="P92" s="4">
-        <v>6954</v>
-      </c>
-      <c r="Q92" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R92" s="4">
-        <v>1223305</v>
-      </c>
-      <c r="S92" s="4">
-        <v>1167450</v>
-      </c>
-      <c r="T92" s="4">
-        <v>2390755</v>
-      </c>
-      <c r="U92" s="6">
+      <c r="R100" s="4">
+        <v>547395</v>
+      </c>
+      <c r="S100" s="4">
+        <v>444069</v>
+      </c>
+      <c r="T100" s="4">
+        <v>991464</v>
+      </c>
+      <c r="U100" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="4">
+        <v>14712</v>
+      </c>
+      <c r="W100" s="4">
+        <v>12475</v>
+      </c>
+      <c r="X100" s="4">
+        <v>27187</v>
+      </c>
+      <c r="Y100" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>9047</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>7545</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>16592</v>
+      </c>
+      <c r="AC100" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1629200</v>
+      </c>
+      <c r="C101" s="3">
+        <v>66631</v>
+      </c>
+      <c r="D101" s="3">
+        <v>44382</v>
+      </c>
+      <c r="F101" s="4">
+        <v>126307</v>
+      </c>
+      <c r="G101" s="4">
+        <v>105347</v>
+      </c>
+      <c r="H101" s="4">
+        <v>231654</v>
+      </c>
+      <c r="I101" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V92" s="4">
-        <v>67913</v>
-      </c>
-      <c r="W92" s="4">
-        <v>65122</v>
-      </c>
-      <c r="X92" s="4">
-        <v>133035</v>
-      </c>
-      <c r="Y92" s="6">
+      <c r="J101" s="4">
+        <v>3705</v>
+      </c>
+      <c r="K101" s="4">
+        <v>3382</v>
+      </c>
+      <c r="L101" s="4">
+        <v>7087</v>
+      </c>
+      <c r="M101" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z92" s="4">
-        <v>41061</v>
-      </c>
-      <c r="AA92" s="4">
-        <v>37909</v>
-      </c>
-      <c r="AB92" s="3">
-        <v>78970</v>
-      </c>
-      <c r="AC92" s="6">
+      <c r="N101" s="4">
+        <v>2618</v>
+      </c>
+      <c r="O101" s="4">
+        <v>2187</v>
+      </c>
+      <c r="P101" s="4">
+        <v>4805</v>
+      </c>
+      <c r="Q101" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93" s="3">
-        <v>265982</v>
-      </c>
-      <c r="C93" s="3">
-        <v>10814</v>
-      </c>
-      <c r="D93" s="3">
-        <v>7397</v>
-      </c>
-      <c r="F93" s="4">
-        <v>5402</v>
-      </c>
-      <c r="G93" s="4">
-        <v>4478</v>
-      </c>
-      <c r="H93" s="4">
-        <v>9880</v>
-      </c>
-      <c r="I93" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="4">
-        <v>234</v>
-      </c>
-      <c r="K93" s="4">
-        <v>226</v>
-      </c>
-      <c r="L93" s="4">
-        <v>460</v>
-      </c>
-      <c r="M93" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="4">
-        <v>208</v>
-      </c>
-      <c r="O93" s="4">
-        <v>156</v>
-      </c>
-      <c r="P93" s="4">
-        <v>364</v>
-      </c>
-      <c r="Q93" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="4">
-        <v>130724</v>
-      </c>
-      <c r="S93" s="4">
-        <v>125378</v>
-      </c>
-      <c r="T93" s="4">
-        <v>256102</v>
-      </c>
-      <c r="U93" s="6">
+      <c r="R101" s="4">
+        <v>764791</v>
+      </c>
+      <c r="S101" s="4">
+        <v>632755</v>
+      </c>
+      <c r="T101" s="4">
+        <v>1397546</v>
+      </c>
+      <c r="U101" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="4">
+        <v>32218</v>
+      </c>
+      <c r="W101" s="4">
+        <v>27326</v>
+      </c>
+      <c r="X101" s="4">
+        <v>59544</v>
+      </c>
+      <c r="Y101" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z101" s="4">
+        <v>21042</v>
+      </c>
+      <c r="AA101" s="4">
+        <v>18535</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>39577</v>
+      </c>
+      <c r="AC101" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" s="3">
+        <v>580628</v>
+      </c>
+      <c r="C102" s="3">
+        <v>18807</v>
+      </c>
+      <c r="D102" s="3">
+        <v>12399</v>
+      </c>
+      <c r="F102" s="4">
+        <v>15481</v>
+      </c>
+      <c r="G102" s="4">
+        <v>14228</v>
+      </c>
+      <c r="H102" s="4">
+        <v>29709</v>
+      </c>
+      <c r="I102" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V93" s="4">
-        <v>5262</v>
-      </c>
-      <c r="W93" s="4">
-        <v>5092</v>
-      </c>
-      <c r="X93" s="4">
-        <v>10354</v>
-      </c>
-      <c r="Y93" s="6">
+      <c r="J102" s="4">
+        <v>839</v>
+      </c>
+      <c r="K102" s="4">
+        <v>892</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1731</v>
+      </c>
+      <c r="M102" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z93" s="4">
-        <v>3473</v>
-      </c>
-      <c r="AA93" s="4">
-        <v>3560</v>
-      </c>
-      <c r="AB93" s="3">
-        <v>7033</v>
-      </c>
-      <c r="AC93" s="6">
+      <c r="N102" s="4">
+        <v>715</v>
+      </c>
+      <c r="O102" s="4">
+        <v>478</v>
+      </c>
+      <c r="P102" s="4">
+        <v>1193</v>
+      </c>
+      <c r="Q102" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" t="s">
-        <v>150</v>
-      </c>
-      <c r="B94" s="3">
-        <v>5523</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="R102" s="4">
+        <v>290874</v>
+      </c>
+      <c r="S102" s="9">
+        <v>260045</v>
+      </c>
+      <c r="T102" s="4">
+        <v>550919</v>
+      </c>
+      <c r="U102" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="4">
+        <v>9426</v>
+      </c>
+      <c r="W102" s="4">
+        <v>7650</v>
+      </c>
+      <c r="X102" s="4">
+        <v>17076</v>
+      </c>
+      <c r="Y102" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>5792</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>5414</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>11206</v>
+      </c>
+      <c r="AC102" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="3">
+        <v>729551</v>
+      </c>
+      <c r="C103" s="3">
+        <v>19985</v>
+      </c>
+      <c r="D103" s="3">
+        <v>12768</v>
+      </c>
+      <c r="F103" s="4">
+        <v>29372</v>
+      </c>
+      <c r="G103" s="4">
+        <v>27707</v>
+      </c>
+      <c r="H103" s="4">
+        <v>57079</v>
+      </c>
+      <c r="I103" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1457</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1367</v>
+      </c>
+      <c r="L103" s="4">
+        <v>2824</v>
+      </c>
+      <c r="M103" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="4">
+        <v>873</v>
+      </c>
+      <c r="O103" s="4">
+        <v>719</v>
+      </c>
+      <c r="P103" s="4">
+        <v>1592</v>
+      </c>
+      <c r="Q103" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="4">
+        <v>354432</v>
+      </c>
+      <c r="S103" s="4">
+        <v>318040</v>
+      </c>
+      <c r="T103" s="4">
+        <v>672472</v>
+      </c>
+      <c r="U103" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V103" s="4">
+        <v>9025</v>
+      </c>
+      <c r="W103" s="4">
+        <v>8136</v>
+      </c>
+      <c r="X103" s="4">
+        <v>17161</v>
+      </c>
+      <c r="Y103" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>5725</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>5451</v>
+      </c>
+      <c r="AB103" s="3">
+        <v>11176</v>
+      </c>
+      <c r="AC103" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1865459</v>
+      </c>
+      <c r="C104" s="3">
+        <v>46404</v>
+      </c>
+      <c r="D104" s="3">
+        <v>25524</v>
+      </c>
+      <c r="F104" s="4">
+        <v>150928</v>
+      </c>
+      <c r="G104" s="4">
+        <v>145093</v>
+      </c>
+      <c r="H104" s="4">
+        <v>296021</v>
+      </c>
+      <c r="I104" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="3">
-        <v>145</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
-        <v>0</v>
-      </c>
-      <c r="H94" s="4">
-        <v>0</v>
-      </c>
-      <c r="I94" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="4">
-        <v>0</v>
-      </c>
-      <c r="K94" s="4">
-        <v>0</v>
-      </c>
-      <c r="L94" s="4">
-        <v>0</v>
-      </c>
-      <c r="M94" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="4">
-        <v>0</v>
-      </c>
-      <c r="O94" s="4">
-        <v>0</v>
-      </c>
-      <c r="P94" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="4" t="s">
+      <c r="K104" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="S94" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T94" s="4">
-        <v>5523</v>
-      </c>
-      <c r="U94" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V94" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W94" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="X94" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y94" s="6" t="e">
+      <c r="L104" s="4">
+        <v>11179</v>
+      </c>
+      <c r="M104" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z94" s="4" t="s">
+      <c r="N104" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AA94" s="4" t="s">
+      <c r="O104" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AB94" s="3">
-        <v>145</v>
-      </c>
-      <c r="AC94" s="6" t="e">
+      <c r="P104" s="4">
+        <v>7533</v>
+      </c>
+      <c r="Q104" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" t="s">
-        <v>151</v>
-      </c>
-      <c r="B95" s="3">
-        <v>7233900</v>
-      </c>
-      <c r="C95" s="3">
-        <v>352029</v>
-      </c>
-      <c r="D95" s="3">
-        <v>231632</v>
-      </c>
-      <c r="F95" s="4">
-        <v>316102</v>
-      </c>
-      <c r="G95" s="4">
-        <v>277306</v>
-      </c>
-      <c r="H95" s="4">
-        <v>677661</v>
-      </c>
-      <c r="I95" s="6">
-        <f t="shared" si="6"/>
-        <v>-84253</v>
-      </c>
-      <c r="J95" s="4">
-        <v>11468</v>
-      </c>
-      <c r="K95" s="4">
-        <v>10720</v>
-      </c>
-      <c r="L95" s="4">
-        <v>29149</v>
-      </c>
-      <c r="M95" s="6">
-        <f t="shared" si="7"/>
-        <v>-6961</v>
-      </c>
-      <c r="N95" s="4">
-        <v>9937</v>
-      </c>
-      <c r="O95" s="4">
-        <v>8283</v>
-      </c>
-      <c r="P95" s="4">
-        <v>23739</v>
-      </c>
-      <c r="Q95" s="6">
-        <f t="shared" si="8"/>
-        <v>-5519</v>
-      </c>
-      <c r="R95" s="4">
-        <v>3003941</v>
-      </c>
-      <c r="S95" s="4">
-        <v>2803775</v>
-      </c>
-      <c r="T95" s="4">
-        <v>6556239</v>
-      </c>
-      <c r="U95" s="6">
-        <f t="shared" si="9"/>
-        <v>-748523</v>
-      </c>
-      <c r="V95" s="4">
-        <v>145324</v>
-      </c>
-      <c r="W95" s="4">
-        <v>138182</v>
-      </c>
-      <c r="X95" s="4">
-        <v>322880</v>
-      </c>
-      <c r="Y95" s="6">
-        <f t="shared" si="10"/>
-        <v>-39374</v>
-      </c>
-      <c r="Z95" s="4">
-        <v>93396</v>
-      </c>
-      <c r="AA95" s="4">
-        <v>86171</v>
-      </c>
-      <c r="AB95" s="3">
-        <v>207893</v>
-      </c>
-      <c r="AC95" s="6">
-        <f t="shared" si="11"/>
-        <v>-28326</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
-        <v>152</v>
-      </c>
-      <c r="B96" s="3">
-        <v>956393</v>
-      </c>
-      <c r="C96" s="3">
-        <v>40153</v>
-      </c>
-      <c r="D96" s="3">
-        <v>24519</v>
-      </c>
-      <c r="F96" s="4">
-        <v>68206</v>
-      </c>
-      <c r="G96" s="4">
-        <v>59483</v>
-      </c>
-      <c r="H96" s="4">
-        <v>127689</v>
-      </c>
-      <c r="I96" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="4">
-        <v>3499</v>
-      </c>
-      <c r="K96" s="4">
-        <v>3364</v>
-      </c>
-      <c r="L96" s="4">
-        <v>6863</v>
-      </c>
-      <c r="M96" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="4">
-        <v>3015</v>
-      </c>
-      <c r="O96" s="4">
-        <v>2375</v>
-      </c>
-      <c r="P96" s="4">
-        <v>5390</v>
-      </c>
-      <c r="Q96" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="4">
-        <v>434719</v>
-      </c>
-      <c r="S96" s="4">
-        <v>393985</v>
-      </c>
-      <c r="T96" s="4">
-        <v>828704</v>
-      </c>
-      <c r="U96" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V96" s="4">
-        <v>17289</v>
-      </c>
-      <c r="W96" s="4">
-        <v>16001</v>
-      </c>
-      <c r="X96" s="4">
-        <v>33290</v>
-      </c>
-      <c r="Y96" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z96" s="4">
-        <v>9959</v>
-      </c>
-      <c r="AA96" s="4">
-        <v>9170</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>19129</v>
-      </c>
-      <c r="AC96" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" t="s">
-        <v>153</v>
-      </c>
-      <c r="B97" s="3">
-        <v>400783</v>
-      </c>
-      <c r="C97" s="3">
-        <v>9738</v>
-      </c>
-      <c r="D97" s="3">
-        <v>6659</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H97" s="4">
-        <v>53385</v>
-      </c>
-      <c r="I97" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L97" s="4">
-        <v>1239</v>
-      </c>
-      <c r="M97" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="P97" s="4">
-        <v>847</v>
-      </c>
-      <c r="Q97" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T97" s="4">
-        <v>347398</v>
-      </c>
-      <c r="U97" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="X97" s="4">
-        <v>8499</v>
-      </c>
-      <c r="Y97" s="6" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB97" s="3">
-        <v>5812</v>
-      </c>
-      <c r="AC97" s="6" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="3">
-        <v>1026831</v>
-      </c>
-      <c r="C98" t="s">
-        <v>165</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H98" s="4">
-        <v>135473</v>
-      </c>
-      <c r="I98" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M98" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="P98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q98" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T98" s="4">
-        <v>891358</v>
-      </c>
-      <c r="U98" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="X98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y98" s="6" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB98" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC98" s="6" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" s="3">
-        <v>815833</v>
-      </c>
-      <c r="C99" s="3">
-        <v>16302</v>
-      </c>
-      <c r="D99" s="3">
-        <v>11035</v>
-      </c>
-      <c r="F99" s="4">
-        <v>28225</v>
-      </c>
-      <c r="G99" s="4">
-        <v>25114</v>
-      </c>
-      <c r="H99" s="4">
-        <v>53339</v>
-      </c>
-      <c r="I99" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="4">
-        <v>1536</v>
-      </c>
-      <c r="K99" s="4">
-        <v>1356</v>
-      </c>
-      <c r="L99" s="4">
-        <v>2892</v>
-      </c>
-      <c r="M99" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="4">
-        <v>920</v>
-      </c>
-      <c r="O99" s="4">
-        <v>938</v>
-      </c>
-      <c r="P99" s="4">
-        <v>1858</v>
-      </c>
-      <c r="Q99" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R99" s="4">
-        <v>420370</v>
-      </c>
-      <c r="S99" s="4">
-        <v>342124</v>
-      </c>
-      <c r="T99" s="4">
-        <v>762494</v>
-      </c>
-      <c r="U99" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V99" s="4">
-        <v>7344</v>
-      </c>
-      <c r="W99" s="4">
-        <v>6066</v>
-      </c>
-      <c r="X99" s="4">
-        <v>13410</v>
-      </c>
-      <c r="Y99" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z99" s="4">
-        <v>5127</v>
-      </c>
-      <c r="AA99" s="4">
-        <v>4050</v>
-      </c>
-      <c r="AB99" s="3">
-        <v>9177</v>
-      </c>
-      <c r="AC99" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" t="s">
-        <v>156</v>
-      </c>
-      <c r="B100" s="3">
-        <v>1077463</v>
-      </c>
-      <c r="C100" s="3">
-        <v>30627</v>
-      </c>
-      <c r="D100" s="3">
-        <v>18811</v>
-      </c>
-      <c r="F100" s="4">
-        <v>46777</v>
-      </c>
-      <c r="G100" s="4">
-        <v>39222</v>
-      </c>
-      <c r="H100" s="4">
-        <v>85999</v>
-      </c>
-      <c r="I100" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="4">
-        <v>1809</v>
-      </c>
-      <c r="K100" s="4">
-        <v>1631</v>
-      </c>
-      <c r="L100" s="4">
-        <v>3440</v>
-      </c>
-      <c r="M100" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="4">
-        <v>1166</v>
-      </c>
-      <c r="O100" s="4">
-        <v>1053</v>
-      </c>
-      <c r="P100" s="4">
-        <v>2219</v>
-      </c>
-      <c r="Q100" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R100" s="4">
-        <v>547395</v>
-      </c>
-      <c r="S100" s="4">
-        <v>444069</v>
-      </c>
-      <c r="T100" s="4">
-        <v>991464</v>
-      </c>
-      <c r="U100" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V100" s="4">
-        <v>14712</v>
-      </c>
-      <c r="W100" s="4">
-        <v>12475</v>
-      </c>
-      <c r="X100" s="4">
-        <v>27187</v>
-      </c>
-      <c r="Y100" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z100" s="4">
-        <v>9047</v>
-      </c>
-      <c r="AA100" s="4">
-        <v>7545</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>16592</v>
-      </c>
-      <c r="AC100" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="3">
-        <v>1629200</v>
-      </c>
-      <c r="C101" s="3">
-        <v>66631</v>
-      </c>
-      <c r="D101" s="3">
-        <v>44382</v>
-      </c>
-      <c r="F101" s="4">
-        <v>126307</v>
-      </c>
-      <c r="G101" s="4">
-        <v>105347</v>
-      </c>
-      <c r="H101" s="4">
-        <v>231654</v>
-      </c>
-      <c r="I101" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="4">
-        <v>3705</v>
-      </c>
-      <c r="K101" s="4">
-        <v>3382</v>
-      </c>
-      <c r="L101" s="4">
-        <v>7087</v>
-      </c>
-      <c r="M101" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N101" s="4">
-        <v>2618</v>
-      </c>
-      <c r="O101" s="4">
-        <v>2187</v>
-      </c>
-      <c r="P101" s="4">
-        <v>4805</v>
-      </c>
-      <c r="Q101" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R101" s="4">
-        <v>764791</v>
-      </c>
-      <c r="S101" s="4">
-        <v>632755</v>
-      </c>
-      <c r="T101" s="4">
-        <v>1397546</v>
-      </c>
-      <c r="U101" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V101" s="4">
-        <v>32218</v>
-      </c>
-      <c r="W101" s="4">
-        <v>27326</v>
-      </c>
-      <c r="X101" s="4">
-        <v>59544</v>
-      </c>
-      <c r="Y101" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z101" s="4">
-        <v>21042</v>
-      </c>
-      <c r="AA101" s="4">
-        <v>18535</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>39577</v>
-      </c>
-      <c r="AC101" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" s="3">
-        <v>580628</v>
-      </c>
-      <c r="C102" s="3">
-        <v>18807</v>
-      </c>
-      <c r="D102" s="3">
-        <v>12399</v>
-      </c>
-      <c r="F102" s="4">
-        <v>15481</v>
-      </c>
-      <c r="G102" s="4">
-        <v>14228</v>
-      </c>
-      <c r="H102" s="4">
-        <v>29709</v>
-      </c>
-      <c r="I102" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="4">
-        <v>839</v>
-      </c>
-      <c r="K102" s="4">
-        <v>892</v>
-      </c>
-      <c r="L102" s="4">
-        <v>1731</v>
-      </c>
-      <c r="M102" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="4">
-        <v>715</v>
-      </c>
-      <c r="O102" s="4">
-        <v>478</v>
-      </c>
-      <c r="P102" s="4">
-        <v>1193</v>
-      </c>
-      <c r="Q102" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="4">
-        <v>290874</v>
-      </c>
-      <c r="S102" s="9">
-        <v>260045</v>
-      </c>
-      <c r="T102" s="4">
-        <v>550919</v>
-      </c>
-      <c r="U102" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V102" s="4">
-        <v>9426</v>
-      </c>
-      <c r="W102" s="4">
-        <v>7650</v>
-      </c>
-      <c r="X102" s="4">
-        <v>17076</v>
-      </c>
-      <c r="Y102" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z102" s="4">
-        <v>5792</v>
-      </c>
-      <c r="AA102" s="4">
-        <v>5414</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>11206</v>
-      </c>
-      <c r="AC102" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="3">
-        <v>729551</v>
-      </c>
-      <c r="C103" s="3">
-        <v>19985</v>
-      </c>
-      <c r="D103" s="3">
-        <v>12768</v>
-      </c>
-      <c r="F103" s="4">
-        <v>29372</v>
-      </c>
-      <c r="G103" s="4">
-        <v>27707</v>
-      </c>
-      <c r="H103" s="4">
-        <v>57079</v>
-      </c>
-      <c r="I103" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="4">
-        <v>1457</v>
-      </c>
-      <c r="K103" s="4">
-        <v>1367</v>
-      </c>
-      <c r="L103" s="4">
-        <v>2824</v>
-      </c>
-      <c r="M103" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N103" s="4">
-        <v>873</v>
-      </c>
-      <c r="O103" s="4">
-        <v>719</v>
-      </c>
-      <c r="P103" s="4">
-        <v>1592</v>
-      </c>
-      <c r="Q103" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R103" s="4">
-        <v>354432</v>
-      </c>
-      <c r="S103" s="4">
-        <v>318040</v>
-      </c>
-      <c r="T103" s="4">
-        <v>672472</v>
-      </c>
-      <c r="U103" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V103" s="4">
-        <v>9025</v>
-      </c>
-      <c r="W103" s="4">
-        <v>8136</v>
-      </c>
-      <c r="X103" s="4">
-        <v>17161</v>
-      </c>
-      <c r="Y103" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z103" s="4">
-        <v>5725</v>
-      </c>
-      <c r="AA103" s="4">
-        <v>5451</v>
-      </c>
-      <c r="AB103" s="3">
-        <v>11176</v>
-      </c>
-      <c r="AC103" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" t="s">
-        <v>160</v>
-      </c>
-      <c r="B104" s="3">
-        <v>1865459</v>
-      </c>
-      <c r="C104" s="3">
-        <v>46404</v>
-      </c>
-      <c r="D104" s="3">
-        <v>25524</v>
-      </c>
-      <c r="F104" s="4">
-        <v>150928</v>
-      </c>
-      <c r="G104" s="4">
-        <v>145093</v>
-      </c>
-      <c r="H104" s="4">
-        <v>296021</v>
-      </c>
-      <c r="I104" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L104" s="4">
-        <v>11179</v>
-      </c>
-      <c r="M104" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N104" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O104" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="P104" s="4">
-        <v>7533</v>
-      </c>
-      <c r="Q104" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R104" s="4">
         <v>792430</v>
       </c>
@@ -10556,7 +11800,7 @@
         <v>1569438</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V104" s="4" t="s">
@@ -10569,7 +11813,7 @@
         <v>35225</v>
       </c>
       <c r="Y104" s="6" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z104" s="4" t="s">
@@ -10582,11 +11826,23 @@
         <v>17991</v>
       </c>
       <c r="AC104" s="6" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE104" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -10609,7 +11865,7 @@
         <v>1070348</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-188858</v>
       </c>
       <c r="J105" s="4">
@@ -10622,7 +11878,7 @@
         <v>37255</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-12418</v>
       </c>
       <c r="N105" s="4">
@@ -10635,7 +11891,7 @@
         <v>25437</v>
       </c>
       <c r="Q105" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-8380</v>
       </c>
       <c r="R105" s="4">
@@ -10648,7 +11904,7 @@
         <v>8011793</v>
       </c>
       <c r="U105" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1238756</v>
       </c>
       <c r="V105" s="4">
@@ -10661,7 +11917,7 @@
         <v>211392</v>
       </c>
       <c r="Y105" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-43724</v>
       </c>
       <c r="Z105" s="4">
@@ -10674,11 +11930,23 @@
         <v>130660</v>
       </c>
       <c r="AC105" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-23803</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE105" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>162</v>
       </c>
@@ -10701,7 +11969,7 @@
         <v>3169954</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-334987</v>
       </c>
       <c r="J106" s="4">
@@ -10714,7 +11982,7 @@
         <v>110875</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-26604</v>
       </c>
       <c r="N106" s="4">
@@ -10727,7 +11995,7 @@
         <v>78979</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-18190</v>
       </c>
       <c r="R106" s="4">
@@ -10740,7 +12008,7 @@
         <v>23914281</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2841686</v>
       </c>
       <c r="V106" s="4">
@@ -10753,7 +12021,7 @@
         <v>903294</v>
       </c>
       <c r="Y106" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-118493</v>
       </c>
       <c r="Z106" s="4">
@@ -10766,16 +12034,28 @@
         <v>545956</v>
       </c>
       <c r="AC106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-73159</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE106" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="3">
-        <v>150819390</v>
+      <c r="B107" s="10">
+        <v>150319390</v>
       </c>
       <c r="C107" s="3">
         <v>6551109</v>
@@ -10793,7 +12073,7 @@
         <v>18881595</v>
       </c>
       <c r="I107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-334987</v>
       </c>
       <c r="J107" s="4">
@@ -10806,7 +12086,7 @@
         <v>685008</v>
       </c>
       <c r="M107" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-40401</v>
       </c>
       <c r="N107" s="4">
@@ -10819,7 +12099,7 @@
         <v>495324</v>
       </c>
       <c r="Q107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-27471</v>
       </c>
       <c r="R107" s="4">
@@ -10832,7 +12112,7 @@
         <v>131437795</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2841686</v>
       </c>
       <c r="V107" s="4">
@@ -10845,7 +12125,7 @@
         <v>5866101</v>
       </c>
       <c r="Y107" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-255330</v>
       </c>
       <c r="Z107" s="4">
@@ -10858,11 +12138,23 @@
         <v>3647334</v>
       </c>
       <c r="AC107" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-153315</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE107" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF107" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -10890,8 +12182,11 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="3"/>
       <c r="AC108" s="6"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE108" s="8"/>
+      <c r="AF108" s="8"/>
+      <c r="AG108" s="8"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>188</v>
       </c>
@@ -10922,8 +12217,11 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="3"/>
       <c r="AC109" s="6"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE109" s="8"/>
+      <c r="AF109" s="8"/>
+      <c r="AG109" s="8"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -10951,8 +12249,11 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="6"/>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE110" s="8"/>
+      <c r="AF110" s="8"/>
+      <c r="AG110" s="8"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>187</v>
       </c>
@@ -10983,8 +12284,11 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="8"/>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE111" s="8"/>
+      <c r="AF111" s="8"/>
+      <c r="AG111" s="8"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>186</v>
       </c>
@@ -11015,8 +12319,11 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="8"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="8"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -11044,8 +12351,11 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="8"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE113" s="8"/>
+      <c r="AF113" s="8"/>
+      <c r="AG113" s="8"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>189</v>
       </c>
@@ -11076,8 +12386,11 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
       <c r="AC114" s="8"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE114" s="8"/>
+      <c r="AF114" s="8"/>
+      <c r="AG114" s="8"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -11105,8 +12418,11 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="8"/>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE115" s="8"/>
+      <c r="AF115" s="8"/>
+      <c r="AG115" s="8"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -11134,8 +12450,11 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="8"/>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -11163,8 +12482,11 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="8"/>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE117" s="8"/>
+      <c r="AF117" s="8"/>
+      <c r="AG117" s="8"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -11192,6 +12514,29 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="8"/>
+      <c r="AE118" s="8"/>
+      <c r="AF118" s="8"/>
+      <c r="AG118" s="8"/>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE119" s="8"/>
+      <c r="AF119" s="8"/>
+      <c r="AG119" s="8"/>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE120" s="8"/>
+      <c r="AF120" s="8"/>
+      <c r="AG120" s="8"/>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="8"/>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE122" s="8"/>
+      <c r="AF122" s="8"/>
+      <c r="AG122" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
